--- a/data/external/bbdd_saldo_campo/182329be-0e9a-43ee-saldo-campo-pw.xlsx
+++ b/data/external/bbdd_saldo_campo/182329be-0e9a-43ee-saldo-campo-pw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="20">
   <si>
     <t>ATCAnioR</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F432"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4922,9 +4922,7 @@
       <c r="B224" t="s">
         <v>15</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C224" s="1"/>
       <c r="D224" s="2">
         <v>8308</v>
       </c>
@@ -4937,53 +4935,51 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
-      </c>
-      <c r="C225" s="1">
-        <v>45261</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C225" s="1"/>
       <c r="D225" s="2">
-        <v>0</v>
+        <v>87692.85000000002</v>
       </c>
       <c r="E225" s="2">
-        <v>0</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>8</v>
+        <v>5169.610000000001</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0.05895132841503041</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
-      </c>
-      <c r="C226" s="1">
-        <v>45262</v>
+        <v>16</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D226" s="2">
-        <v>410</v>
+        <v>13238.67</v>
       </c>
       <c r="E226" s="2">
-        <v>98</v>
+        <v>1133.86</v>
       </c>
       <c r="F226" s="3">
-        <v>0.2390243902439024</v>
+        <v>0.08564757638040681</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C227" s="1">
-        <v>45263</v>
+        <v>45292</v>
       </c>
       <c r="D227" s="2">
         <v>0</v>
@@ -4997,36 +4993,36 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C228" s="1">
-        <v>45264</v>
+        <v>45293</v>
       </c>
       <c r="D228" s="2">
-        <v>460</v>
+        <v>302.39</v>
       </c>
       <c r="E228" s="2">
-        <v>15</v>
+        <v>31.88</v>
       </c>
       <c r="F228" s="3">
-        <v>0.03260869565217391</v>
+        <v>0.10542676675816</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C229" s="1">
-        <v>45265</v>
+        <v>45294</v>
       </c>
       <c r="D229" s="2">
-        <v>483</v>
+        <v>378.03</v>
       </c>
       <c r="E229" s="2">
         <v>0</v>
@@ -5037,522 +5033,522 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C230" s="1">
-        <v>45266</v>
+        <v>45295</v>
       </c>
       <c r="D230" s="2">
-        <v>478</v>
+        <v>365.91</v>
       </c>
       <c r="E230" s="2">
-        <v>7</v>
+        <v>10.07</v>
       </c>
       <c r="F230" s="3">
-        <v>0.01464435146443514</v>
+        <v>0.02752042852067448</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C231" s="1">
-        <v>45267</v>
+        <v>45296</v>
       </c>
       <c r="D231" s="2">
-        <v>498</v>
+        <v>523.99</v>
       </c>
       <c r="E231" s="2">
-        <v>2</v>
+        <v>25.12</v>
       </c>
       <c r="F231" s="3">
-        <v>0.004016064257028112</v>
+        <v>0.04793984618027062</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C232" s="1">
-        <v>45268</v>
+        <v>45297</v>
       </c>
       <c r="D232" s="2">
-        <v>0</v>
+        <v>408.87</v>
       </c>
       <c r="E232" s="2">
-        <v>0</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>8</v>
+        <v>39.21</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0.09589845183065522</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C233" s="1">
-        <v>45269</v>
+        <v>45298</v>
       </c>
       <c r="D233" s="2">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E233" s="2">
-        <v>28</v>
-      </c>
-      <c r="F233" s="3">
-        <v>0.2276422764227642</v>
+        <v>0</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C234" s="1">
-        <v>45270</v>
+        <v>45299</v>
       </c>
       <c r="D234" s="2">
-        <v>0</v>
+        <v>616.54</v>
       </c>
       <c r="E234" s="2">
-        <v>0</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>8</v>
+        <v>120.34</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0.1951860382132546</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C235" s="1">
-        <v>45271</v>
+        <v>45300</v>
       </c>
       <c r="D235" s="2">
-        <v>0</v>
+        <v>709.1799999999999</v>
       </c>
       <c r="E235" s="2">
-        <v>0</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>8</v>
+        <v>22.75</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0.03207930285682056</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C236" s="1">
-        <v>45272</v>
+        <v>45301</v>
       </c>
       <c r="D236" s="2">
-        <v>453</v>
+        <v>706.2</v>
       </c>
       <c r="E236" s="2">
-        <v>9</v>
+        <v>62.11</v>
       </c>
       <c r="F236" s="3">
-        <v>0.01986754966887417</v>
+        <v>0.08794958935145851</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C237" s="1">
-        <v>45273</v>
+        <v>45302</v>
       </c>
       <c r="D237" s="2">
-        <v>418</v>
+        <v>642.36</v>
       </c>
       <c r="E237" s="2">
-        <v>18</v>
+        <v>28.58</v>
       </c>
       <c r="F237" s="3">
-        <v>0.0430622009569378</v>
+        <v>0.04449218506756335</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C238" s="1">
-        <v>45274</v>
+        <v>45303</v>
       </c>
       <c r="D238" s="2">
-        <v>464</v>
+        <v>674.23</v>
       </c>
       <c r="E238" s="2">
-        <v>1</v>
+        <v>37.5</v>
       </c>
       <c r="F238" s="3">
-        <v>0.002155172413793103</v>
+        <v>0.05561900241757264</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C239" s="1">
-        <v>45275</v>
+        <v>45304</v>
       </c>
       <c r="D239" s="2">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="E239" s="2">
-        <v>26</v>
-      </c>
-      <c r="F239" s="3">
-        <v>0.04961832061068702</v>
+        <v>0</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C240" s="1">
-        <v>45276</v>
+        <v>45305</v>
       </c>
       <c r="D240" s="2">
-        <v>269</v>
+        <v>453.37</v>
       </c>
       <c r="E240" s="2">
-        <v>3</v>
+        <v>81.79000000000001</v>
       </c>
       <c r="F240" s="3">
-        <v>0.01115241635687732</v>
+        <v>0.1804045261045063</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C241" s="1">
-        <v>45277</v>
+        <v>45306</v>
       </c>
       <c r="D241" s="2">
-        <v>0</v>
+        <v>567.16</v>
       </c>
       <c r="E241" s="2">
-        <v>0</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>8</v>
+        <v>64.20999999999999</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0.1132132026235983</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C242" s="1">
-        <v>45278</v>
+        <v>45307</v>
       </c>
       <c r="D242" s="2">
-        <v>431</v>
+        <v>540.52</v>
       </c>
       <c r="E242" s="2">
-        <v>8</v>
+        <v>13.07</v>
       </c>
       <c r="F242" s="3">
-        <v>0.0185614849187935</v>
+        <v>0.02418041885591653</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C243" s="1">
-        <v>45279</v>
+        <v>45308</v>
       </c>
       <c r="D243" s="2">
-        <v>438</v>
+        <v>661.53</v>
       </c>
       <c r="E243" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F243" s="3">
-        <v>0.08447488584474885</v>
+        <v>0.02418635587199371</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C244" s="1">
-        <v>45280</v>
+        <v>45309</v>
       </c>
       <c r="D244" s="2">
-        <v>289</v>
+        <v>674.66</v>
       </c>
       <c r="E244" s="2">
-        <v>16</v>
+        <v>38.4</v>
       </c>
       <c r="F244" s="3">
-        <v>0.05536332179930796</v>
+        <v>0.05691755847389796</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C245" s="1">
-        <v>45281</v>
+        <v>45310</v>
       </c>
       <c r="D245" s="2">
-        <v>312</v>
+        <v>720.6900000000001</v>
       </c>
       <c r="E245" s="2">
-        <v>8</v>
+        <v>135.6</v>
       </c>
       <c r="F245" s="3">
-        <v>0.02564102564102564</v>
+        <v>0.1881530200224784</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C246" s="1">
-        <v>45282</v>
+        <v>45311</v>
       </c>
       <c r="D246" s="2">
-        <v>418</v>
+        <v>458.77</v>
       </c>
       <c r="E246" s="2">
-        <v>22</v>
+        <v>142.85</v>
       </c>
       <c r="F246" s="3">
-        <v>0.05263157894736842</v>
+        <v>0.3113760707980033</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C247" s="1">
-        <v>45283</v>
+        <v>45312</v>
       </c>
       <c r="D247" s="2">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E247" s="2">
         <v>0</v>
       </c>
-      <c r="F247" s="3">
-        <v>0</v>
+      <c r="F247" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C248" s="1">
-        <v>45284</v>
+        <v>45313</v>
       </c>
       <c r="D248" s="2">
-        <v>0</v>
+        <v>483.41</v>
       </c>
       <c r="E248" s="2">
-        <v>0</v>
-      </c>
-      <c r="F248" s="3" t="s">
-        <v>8</v>
+        <v>108.18</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0.2237851926935727</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C249" s="1">
-        <v>45285</v>
+        <v>45314</v>
       </c>
       <c r="D249" s="2">
-        <v>0</v>
+        <v>430.52</v>
       </c>
       <c r="E249" s="2">
-        <v>0</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>8</v>
+        <v>54.67</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0.1269859704543343</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C250" s="1">
-        <v>45286</v>
+        <v>45315</v>
       </c>
       <c r="D250" s="2">
-        <v>356</v>
+        <v>505.3</v>
       </c>
       <c r="E250" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F250" s="3">
-        <v>0</v>
+        <v>0.04551751434791213</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C251" s="1">
-        <v>45287</v>
+        <v>45316</v>
       </c>
       <c r="D251" s="2">
-        <v>321</v>
+        <v>434.77</v>
       </c>
       <c r="E251" s="2">
-        <v>16</v>
+        <v>1.45</v>
       </c>
       <c r="F251" s="3">
-        <v>0.04984423676012461</v>
+        <v>0.003335096717804817</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C252" s="1">
-        <v>45288</v>
+        <v>45317</v>
       </c>
       <c r="D252" s="2">
-        <v>398</v>
+        <v>340.5</v>
       </c>
       <c r="E252" s="2">
-        <v>27</v>
+        <v>7.29</v>
       </c>
       <c r="F252" s="3">
-        <v>0.0678391959798995</v>
+        <v>0.02140969162995595</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C253" s="1">
-        <v>45289</v>
+        <v>45318</v>
       </c>
       <c r="D253" s="2">
-        <v>383</v>
+        <v>230.81</v>
       </c>
       <c r="E253" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F253" s="3">
-        <v>0.03133159268929504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C254" s="1">
-        <v>45290</v>
+        <v>45319</v>
       </c>
       <c r="D254" s="2">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="E254" s="2">
         <v>0</v>
       </c>
-      <c r="F254" s="3">
-        <v>0</v>
+      <c r="F254" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C255" s="1">
-        <v>45291</v>
+        <v>45320</v>
       </c>
       <c r="D255" s="2">
-        <v>0</v>
+        <v>418.95</v>
       </c>
       <c r="E255" s="2">
-        <v>0</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>8</v>
+        <v>32.71</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0.07807614273779688</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5560,17 +5556,19 @@
         <v>2024</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
-      </c>
-      <c r="C256" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C256" s="1">
+        <v>45321</v>
+      </c>
       <c r="D256" s="2">
-        <v>57464.14000000001</v>
+        <v>444.71</v>
       </c>
       <c r="E256" s="2">
-        <v>4015.18</v>
+        <v>13.45</v>
       </c>
       <c r="F256" s="3">
-        <v>0.06987279371099958</v>
+        <v>0.03024442895370017</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5580,17 +5578,17 @@
       <c r="B257" t="s">
         <v>16</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>6</v>
+      <c r="C257" s="1">
+        <v>45322</v>
       </c>
       <c r="D257" s="2">
-        <v>13238.67</v>
+        <v>545.3</v>
       </c>
       <c r="E257" s="2">
-        <v>1133.86</v>
+        <v>23.63</v>
       </c>
       <c r="F257" s="3">
-        <v>0.08564757638040681</v>
+        <v>0.04333394461764167</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5598,19 +5596,19 @@
         <v>2024</v>
       </c>
       <c r="B258" t="s">
-        <v>16</v>
-      </c>
-      <c r="C258" s="1">
-        <v>45292</v>
+        <v>17</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D258" s="2">
-        <v>0</v>
+        <v>10457.02</v>
       </c>
       <c r="E258" s="2">
-        <v>0</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>8</v>
+        <v>626.4099999999999</v>
+      </c>
+      <c r="F258" s="3">
+        <v>0.05990329941034825</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5618,19 +5616,19 @@
         <v>2024</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C259" s="1">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="D259" s="2">
-        <v>302.39</v>
+        <v>437.03</v>
       </c>
       <c r="E259" s="2">
-        <v>31.88</v>
+        <v>7.92</v>
       </c>
       <c r="F259" s="3">
-        <v>0.10542676675816</v>
+        <v>0.01812232569846464</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5638,19 +5636,19 @@
         <v>2024</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C260" s="1">
-        <v>45294</v>
+        <v>45324</v>
       </c>
       <c r="D260" s="2">
-        <v>378.03</v>
+        <v>378.6</v>
       </c>
       <c r="E260" s="2">
-        <v>0</v>
+        <v>25.23</v>
       </c>
       <c r="F260" s="3">
-        <v>0</v>
+        <v>0.06664025356576862</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5658,19 +5656,19 @@
         <v>2024</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C261" s="1">
-        <v>45295</v>
+        <v>45325</v>
       </c>
       <c r="D261" s="2">
-        <v>365.91</v>
+        <v>195.96</v>
       </c>
       <c r="E261" s="2">
-        <v>10.07</v>
+        <v>7.33</v>
       </c>
       <c r="F261" s="3">
-        <v>0.02752042852067448</v>
+        <v>0.03740559297815881</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5678,19 +5676,19 @@
         <v>2024</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C262" s="1">
-        <v>45296</v>
+        <v>45326</v>
       </c>
       <c r="D262" s="2">
-        <v>523.99</v>
+        <v>0</v>
       </c>
       <c r="E262" s="2">
-        <v>25.12</v>
-      </c>
-      <c r="F262" s="3">
-        <v>0.04793984618027062</v>
+        <v>0</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5698,19 +5696,19 @@
         <v>2024</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C263" s="1">
-        <v>45297</v>
+        <v>45327</v>
       </c>
       <c r="D263" s="2">
-        <v>408.87</v>
+        <v>0</v>
       </c>
       <c r="E263" s="2">
-        <v>39.21</v>
-      </c>
-      <c r="F263" s="3">
-        <v>0.09589845183065522</v>
+        <v>0</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5718,19 +5716,19 @@
         <v>2024</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C264" s="1">
-        <v>45298</v>
+        <v>45328</v>
       </c>
       <c r="D264" s="2">
-        <v>0</v>
+        <v>335.25</v>
       </c>
       <c r="E264" s="2">
-        <v>0</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>8</v>
+        <v>7.81</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0.02329604772557792</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5738,19 +5736,19 @@
         <v>2024</v>
       </c>
       <c r="B265" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C265" s="1">
-        <v>45299</v>
+        <v>45329</v>
       </c>
       <c r="D265" s="2">
-        <v>616.54</v>
+        <v>419.13</v>
       </c>
       <c r="E265" s="2">
-        <v>120.34</v>
+        <v>13.17</v>
       </c>
       <c r="F265" s="3">
-        <v>0.1951860382132546</v>
+        <v>0.03142223176580058</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5758,19 +5756,19 @@
         <v>2024</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C266" s="1">
-        <v>45300</v>
+        <v>45330</v>
       </c>
       <c r="D266" s="2">
-        <v>709.1799999999999</v>
+        <v>407.45</v>
       </c>
       <c r="E266" s="2">
-        <v>22.75</v>
+        <v>13.47</v>
       </c>
       <c r="F266" s="3">
-        <v>0.03207930285682056</v>
+        <v>0.03305927107620567</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5778,19 +5776,19 @@
         <v>2024</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C267" s="1">
-        <v>45301</v>
+        <v>45331</v>
       </c>
       <c r="D267" s="2">
-        <v>706.2</v>
+        <v>466.19</v>
       </c>
       <c r="E267" s="2">
-        <v>62.11</v>
+        <v>14.81</v>
       </c>
       <c r="F267" s="3">
-        <v>0.08794958935145851</v>
+        <v>0.03176816319526374</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5798,19 +5796,19 @@
         <v>2024</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C268" s="1">
-        <v>45302</v>
+        <v>45332</v>
       </c>
       <c r="D268" s="2">
-        <v>642.36</v>
+        <v>343.48</v>
       </c>
       <c r="E268" s="2">
-        <v>28.58</v>
+        <v>11.18</v>
       </c>
       <c r="F268" s="3">
-        <v>0.04449218506756335</v>
+        <v>0.03254920228252008</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5818,19 +5816,19 @@
         <v>2024</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C269" s="1">
-        <v>45303</v>
+        <v>45333</v>
       </c>
       <c r="D269" s="2">
-        <v>674.23</v>
+        <v>0</v>
       </c>
       <c r="E269" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="F269" s="3">
-        <v>0.05561900241757264</v>
+        <v>0</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5838,19 +5836,19 @@
         <v>2024</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C270" s="1">
-        <v>45304</v>
+        <v>45334</v>
       </c>
       <c r="D270" s="2">
-        <v>0</v>
+        <v>416.28</v>
       </c>
       <c r="E270" s="2">
-        <v>0</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>8</v>
+        <v>53.51</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0.1285432881714231</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5858,19 +5856,19 @@
         <v>2024</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C271" s="1">
-        <v>45305</v>
+        <v>45335</v>
       </c>
       <c r="D271" s="2">
-        <v>453.37</v>
+        <v>472.55</v>
       </c>
       <c r="E271" s="2">
-        <v>81.79000000000001</v>
+        <v>16.62</v>
       </c>
       <c r="F271" s="3">
-        <v>0.1804045261045063</v>
+        <v>0.03517088138821289</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5878,19 +5876,19 @@
         <v>2024</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C272" s="1">
-        <v>45306</v>
+        <v>45336</v>
       </c>
       <c r="D272" s="2">
-        <v>567.16</v>
+        <v>549.0599999999999</v>
       </c>
       <c r="E272" s="2">
-        <v>64.20999999999999</v>
+        <v>36.91</v>
       </c>
       <c r="F272" s="3">
-        <v>0.1132132026235983</v>
+        <v>0.06722398280697921</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5898,19 +5896,19 @@
         <v>2024</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C273" s="1">
-        <v>45307</v>
+        <v>45337</v>
       </c>
       <c r="D273" s="2">
-        <v>540.52</v>
+        <v>586.4400000000001</v>
       </c>
       <c r="E273" s="2">
-        <v>13.07</v>
+        <v>20.13</v>
       </c>
       <c r="F273" s="3">
-        <v>0.02418041885591653</v>
+        <v>0.03432576222631471</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5918,19 +5916,19 @@
         <v>2024</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C274" s="1">
-        <v>45308</v>
+        <v>45338</v>
       </c>
       <c r="D274" s="2">
-        <v>661.53</v>
+        <v>562.8</v>
       </c>
       <c r="E274" s="2">
-        <v>16</v>
+        <v>32.14</v>
       </c>
       <c r="F274" s="3">
-        <v>0.02418635587199371</v>
+        <v>0.05710732054015637</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5938,19 +5936,19 @@
         <v>2024</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C275" s="1">
-        <v>45309</v>
+        <v>45339</v>
       </c>
       <c r="D275" s="2">
-        <v>674.66</v>
+        <v>481.47</v>
       </c>
       <c r="E275" s="2">
-        <v>38.4</v>
+        <v>34.62</v>
       </c>
       <c r="F275" s="3">
-        <v>0.05691755847389796</v>
+        <v>0.07190479157579911</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5958,19 +5956,19 @@
         <v>2024</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C276" s="1">
-        <v>45310</v>
+        <v>45340</v>
       </c>
       <c r="D276" s="2">
-        <v>720.6900000000001</v>
+        <v>0</v>
       </c>
       <c r="E276" s="2">
-        <v>135.6</v>
-      </c>
-      <c r="F276" s="3">
-        <v>0.1881530200224784</v>
+        <v>0</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5978,19 +5976,19 @@
         <v>2024</v>
       </c>
       <c r="B277" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C277" s="1">
-        <v>45311</v>
+        <v>45341</v>
       </c>
       <c r="D277" s="2">
-        <v>458.77</v>
+        <v>577.54</v>
       </c>
       <c r="E277" s="2">
-        <v>142.85</v>
+        <v>152.88</v>
       </c>
       <c r="F277" s="3">
-        <v>0.3113760707980033</v>
+        <v>0.2647089379090626</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5998,19 +5996,19 @@
         <v>2024</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C278" s="1">
-        <v>45312</v>
+        <v>45342</v>
       </c>
       <c r="D278" s="2">
-        <v>0</v>
+        <v>562.95</v>
       </c>
       <c r="E278" s="2">
-        <v>0</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>8</v>
+        <v>36.61</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0.06503241850963673</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6018,19 +6016,19 @@
         <v>2024</v>
       </c>
       <c r="B279" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C279" s="1">
-        <v>45313</v>
+        <v>45343</v>
       </c>
       <c r="D279" s="2">
-        <v>483.41</v>
+        <v>558.4</v>
       </c>
       <c r="E279" s="2">
-        <v>108.18</v>
+        <v>28.75</v>
       </c>
       <c r="F279" s="3">
-        <v>0.2237851926935727</v>
+        <v>0.05148638968481375</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6038,19 +6036,19 @@
         <v>2024</v>
       </c>
       <c r="B280" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C280" s="1">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="D280" s="2">
-        <v>430.52</v>
+        <v>477.29</v>
       </c>
       <c r="E280" s="2">
-        <v>54.67</v>
+        <v>45.8</v>
       </c>
       <c r="F280" s="3">
-        <v>0.1269859704543343</v>
+        <v>0.09595843198055688</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6058,19 +6056,19 @@
         <v>2024</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C281" s="1">
-        <v>45315</v>
+        <v>45345</v>
       </c>
       <c r="D281" s="2">
-        <v>505.3</v>
+        <v>483.25</v>
       </c>
       <c r="E281" s="2">
-        <v>23</v>
+        <v>24.46</v>
       </c>
       <c r="F281" s="3">
-        <v>0.04551751434791213</v>
+        <v>0.05061562338334195</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6078,19 +6076,19 @@
         <v>2024</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C282" s="1">
-        <v>45316</v>
+        <v>45346</v>
       </c>
       <c r="D282" s="2">
-        <v>434.77</v>
+        <v>285.26</v>
       </c>
       <c r="E282" s="2">
-        <v>1.45</v>
+        <v>8.27</v>
       </c>
       <c r="F282" s="3">
-        <v>0.003335096717804817</v>
+        <v>0.0289910958423894</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6098,19 +6096,19 @@
         <v>2024</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C283" s="1">
-        <v>45317</v>
+        <v>45347</v>
       </c>
       <c r="D283" s="2">
-        <v>340.5</v>
+        <v>0</v>
       </c>
       <c r="E283" s="2">
-        <v>7.29</v>
-      </c>
-      <c r="F283" s="3">
-        <v>0.02140969162995595</v>
+        <v>0</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6118,19 +6116,19 @@
         <v>2024</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C284" s="1">
-        <v>45318</v>
+        <v>45348</v>
       </c>
       <c r="D284" s="2">
-        <v>230.81</v>
+        <v>358.78</v>
       </c>
       <c r="E284" s="2">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="F284" s="3">
-        <v>0</v>
+        <v>0.07720608729583589</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6138,19 +6136,19 @@
         <v>2024</v>
       </c>
       <c r="B285" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C285" s="1">
-        <v>45319</v>
+        <v>45349</v>
       </c>
       <c r="D285" s="2">
-        <v>0</v>
+        <v>382.37</v>
       </c>
       <c r="E285" s="2">
-        <v>0</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>8</v>
+        <v>1.89</v>
+      </c>
+      <c r="F285" s="3">
+        <v>0.004942856395637732</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6158,19 +6156,19 @@
         <v>2024</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C286" s="1">
-        <v>45320</v>
+        <v>45350</v>
       </c>
       <c r="D286" s="2">
-        <v>418.95</v>
+        <v>401.98</v>
       </c>
       <c r="E286" s="2">
-        <v>32.71</v>
+        <v>5.2</v>
       </c>
       <c r="F286" s="3">
-        <v>0.07807614273779688</v>
+        <v>0.01293596696353052</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6178,19 +6176,19 @@
         <v>2024</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C287" s="1">
-        <v>45321</v>
+        <v>45351</v>
       </c>
       <c r="D287" s="2">
-        <v>444.71</v>
+        <v>317.51</v>
       </c>
       <c r="E287" s="2">
-        <v>13.45</v>
+        <v>0</v>
       </c>
       <c r="F287" s="3">
-        <v>0.03024442895370017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6198,19 +6196,19 @@
         <v>2024</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
-      </c>
-      <c r="C288" s="1">
-        <v>45322</v>
+        <v>18</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D288" s="2">
-        <v>545.3</v>
+        <v>10485.78</v>
       </c>
       <c r="E288" s="2">
-        <v>23.63</v>
+        <v>978.2800000000002</v>
       </c>
       <c r="F288" s="3">
-        <v>0.04333394461764167</v>
+        <v>0.09329587307763466</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6218,19 +6216,19 @@
         <v>2024</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="C289" s="1">
+        <v>45352</v>
       </c>
       <c r="D289" s="2">
-        <v>10457.02</v>
+        <v>446.59</v>
       </c>
       <c r="E289" s="2">
-        <v>626.4099999999999</v>
+        <v>4.84</v>
       </c>
       <c r="F289" s="3">
-        <v>0.05990329941034825</v>
+        <v>0.01083768109451622</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6238,19 +6236,19 @@
         <v>2024</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C290" s="1">
-        <v>45323</v>
+        <v>45353</v>
       </c>
       <c r="D290" s="2">
-        <v>437.03</v>
+        <v>335.53</v>
       </c>
       <c r="E290" s="2">
-        <v>7.92</v>
+        <v>6.84</v>
       </c>
       <c r="F290" s="3">
-        <v>0.01812232569846464</v>
+        <v>0.02038565851041636</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6258,19 +6256,19 @@
         <v>2024</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C291" s="1">
-        <v>45324</v>
+        <v>45354</v>
       </c>
       <c r="D291" s="2">
-        <v>378.6</v>
+        <v>0</v>
       </c>
       <c r="E291" s="2">
-        <v>25.23</v>
-      </c>
-      <c r="F291" s="3">
-        <v>0.06664025356576862</v>
+        <v>0</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6278,19 +6276,19 @@
         <v>2024</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C292" s="1">
-        <v>45325</v>
+        <v>45355</v>
       </c>
       <c r="D292" s="2">
-        <v>195.96</v>
+        <v>424.48</v>
       </c>
       <c r="E292" s="2">
-        <v>7.33</v>
+        <v>56.01</v>
       </c>
       <c r="F292" s="3">
-        <v>0.03740559297815881</v>
+        <v>0.1319496796079909</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6298,19 +6296,19 @@
         <v>2024</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C293" s="1">
-        <v>45326</v>
+        <v>45356</v>
       </c>
       <c r="D293" s="2">
-        <v>0</v>
+        <v>423.08</v>
       </c>
       <c r="E293" s="2">
-        <v>0</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>8</v>
+        <v>21.87</v>
+      </c>
+      <c r="F293" s="3">
+        <v>0.05169235132835398</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6318,19 +6316,19 @@
         <v>2024</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C294" s="1">
-        <v>45327</v>
+        <v>45357</v>
       </c>
       <c r="D294" s="2">
-        <v>0</v>
+        <v>554.71</v>
       </c>
       <c r="E294" s="2">
-        <v>0</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>8</v>
+        <v>32.5</v>
+      </c>
+      <c r="F294" s="3">
+        <v>0.05858917272088118</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6338,19 +6336,19 @@
         <v>2024</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C295" s="1">
-        <v>45328</v>
+        <v>45358</v>
       </c>
       <c r="D295" s="2">
-        <v>335.25</v>
+        <v>656.7</v>
       </c>
       <c r="E295" s="2">
-        <v>7.81</v>
+        <v>55.96</v>
       </c>
       <c r="F295" s="3">
-        <v>0.02329604772557792</v>
+        <v>0.08521394853053144</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6358,19 +6356,19 @@
         <v>2024</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C296" s="1">
-        <v>45329</v>
+        <v>45359</v>
       </c>
       <c r="D296" s="2">
-        <v>419.13</v>
+        <v>667.74</v>
       </c>
       <c r="E296" s="2">
-        <v>13.17</v>
+        <v>31.45</v>
       </c>
       <c r="F296" s="3">
-        <v>0.03142223176580058</v>
+        <v>0.04709917033575942</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6378,19 +6376,19 @@
         <v>2024</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C297" s="1">
-        <v>45330</v>
+        <v>45360</v>
       </c>
       <c r="D297" s="2">
-        <v>407.45</v>
+        <v>427.8</v>
       </c>
       <c r="E297" s="2">
-        <v>13.47</v>
+        <v>70.97</v>
       </c>
       <c r="F297" s="3">
-        <v>0.03305927107620567</v>
+        <v>0.1658952781673679</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6398,19 +6396,19 @@
         <v>2024</v>
       </c>
       <c r="B298" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C298" s="1">
-        <v>45331</v>
+        <v>45361</v>
       </c>
       <c r="D298" s="2">
-        <v>466.19</v>
+        <v>0</v>
       </c>
       <c r="E298" s="2">
-        <v>14.81</v>
-      </c>
-      <c r="F298" s="3">
-        <v>0.03176816319526374</v>
+        <v>0</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6418,19 +6416,19 @@
         <v>2024</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C299" s="1">
-        <v>45332</v>
+        <v>45362</v>
       </c>
       <c r="D299" s="2">
-        <v>343.48</v>
+        <v>491.18</v>
       </c>
       <c r="E299" s="2">
-        <v>11.18</v>
+        <v>101.12</v>
       </c>
       <c r="F299" s="3">
-        <v>0.03254920228252008</v>
+        <v>0.205871574575512</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6438,19 +6436,19 @@
         <v>2024</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C300" s="1">
-        <v>45333</v>
+        <v>45363</v>
       </c>
       <c r="D300" s="2">
-        <v>0</v>
+        <v>524.87</v>
       </c>
       <c r="E300" s="2">
-        <v>0</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>8</v>
+        <v>10.03</v>
+      </c>
+      <c r="F300" s="3">
+        <v>0.01910949377941204</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6458,19 +6456,19 @@
         <v>2024</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C301" s="1">
-        <v>45334</v>
+        <v>45364</v>
       </c>
       <c r="D301" s="2">
-        <v>416.28</v>
+        <v>506.92</v>
       </c>
       <c r="E301" s="2">
-        <v>53.51</v>
+        <v>2.07</v>
       </c>
       <c r="F301" s="3">
-        <v>0.1285432881714231</v>
+        <v>0.004083484573502722</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6478,19 +6476,19 @@
         <v>2024</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C302" s="1">
-        <v>45335</v>
+        <v>45365</v>
       </c>
       <c r="D302" s="2">
-        <v>472.55</v>
+        <v>450.68</v>
       </c>
       <c r="E302" s="2">
-        <v>16.62</v>
+        <v>33.76</v>
       </c>
       <c r="F302" s="3">
-        <v>0.03517088138821289</v>
+        <v>0.07490902636016686</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6498,19 +6496,19 @@
         <v>2024</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C303" s="1">
-        <v>45336</v>
+        <v>45366</v>
       </c>
       <c r="D303" s="2">
-        <v>549.0599999999999</v>
+        <v>483.31</v>
       </c>
       <c r="E303" s="2">
-        <v>36.91</v>
+        <v>20.38</v>
       </c>
       <c r="F303" s="3">
-        <v>0.06722398280697921</v>
+        <v>0.04216755291634768</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6518,19 +6516,19 @@
         <v>2024</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C304" s="1">
-        <v>45337</v>
+        <v>45367</v>
       </c>
       <c r="D304" s="2">
-        <v>586.4400000000001</v>
+        <v>328.12</v>
       </c>
       <c r="E304" s="2">
-        <v>20.13</v>
+        <v>15.49</v>
       </c>
       <c r="F304" s="3">
-        <v>0.03432576222631471</v>
+        <v>0.04720833841277582</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6538,19 +6536,19 @@
         <v>2024</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C305" s="1">
-        <v>45338</v>
+        <v>45368</v>
       </c>
       <c r="D305" s="2">
-        <v>562.8</v>
+        <v>0</v>
       </c>
       <c r="E305" s="2">
-        <v>32.14</v>
-      </c>
-      <c r="F305" s="3">
-        <v>0.05710732054015637</v>
+        <v>0</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6558,19 +6556,19 @@
         <v>2024</v>
       </c>
       <c r="B306" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C306" s="1">
-        <v>45339</v>
+        <v>45369</v>
       </c>
       <c r="D306" s="2">
-        <v>481.47</v>
+        <v>343.61</v>
       </c>
       <c r="E306" s="2">
-        <v>34.62</v>
+        <v>45.95</v>
       </c>
       <c r="F306" s="3">
-        <v>0.07190479157579911</v>
+        <v>0.1337271907103984</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6578,19 +6576,19 @@
         <v>2024</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C307" s="1">
-        <v>45340</v>
+        <v>45370</v>
       </c>
       <c r="D307" s="2">
-        <v>0</v>
+        <v>309.59</v>
       </c>
       <c r="E307" s="2">
-        <v>0</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>8</v>
+        <v>21.71</v>
+      </c>
+      <c r="F307" s="3">
+        <v>0.07012500403759812</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6598,19 +6596,19 @@
         <v>2024</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C308" s="1">
-        <v>45341</v>
+        <v>45371</v>
       </c>
       <c r="D308" s="2">
-        <v>577.54</v>
+        <v>350.22</v>
       </c>
       <c r="E308" s="2">
-        <v>152.88</v>
+        <v>3.86</v>
       </c>
       <c r="F308" s="3">
-        <v>0.2647089379090626</v>
+        <v>0.01102164353834732</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6618,19 +6616,19 @@
         <v>2024</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C309" s="1">
-        <v>45342</v>
+        <v>45372</v>
       </c>
       <c r="D309" s="2">
-        <v>562.95</v>
+        <v>395.75</v>
       </c>
       <c r="E309" s="2">
-        <v>36.61</v>
+        <v>9.09</v>
       </c>
       <c r="F309" s="3">
-        <v>0.06503241850963673</v>
+        <v>0.02296904611497157</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6638,19 +6636,19 @@
         <v>2024</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C310" s="1">
-        <v>45343</v>
+        <v>45373</v>
       </c>
       <c r="D310" s="2">
-        <v>558.4</v>
+        <v>406.02</v>
       </c>
       <c r="E310" s="2">
-        <v>28.75</v>
+        <v>6.63</v>
       </c>
       <c r="F310" s="3">
-        <v>0.05148638968481375</v>
+        <v>0.01632924486478499</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6658,19 +6656,19 @@
         <v>2024</v>
       </c>
       <c r="B311" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C311" s="1">
-        <v>45344</v>
+        <v>45374</v>
       </c>
       <c r="D311" s="2">
-        <v>477.29</v>
+        <v>318.54</v>
       </c>
       <c r="E311" s="2">
-        <v>45.8</v>
+        <v>13.79</v>
       </c>
       <c r="F311" s="3">
-        <v>0.09595843198055688</v>
+        <v>0.04329126640296352</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6678,19 +6676,19 @@
         <v>2024</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C312" s="1">
-        <v>45345</v>
+        <v>45375</v>
       </c>
       <c r="D312" s="2">
-        <v>483.25</v>
+        <v>0</v>
       </c>
       <c r="E312" s="2">
-        <v>24.46</v>
-      </c>
-      <c r="F312" s="3">
-        <v>0.05061562338334195</v>
+        <v>0</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6698,19 +6696,19 @@
         <v>2024</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C313" s="1">
-        <v>45346</v>
+        <v>45376</v>
       </c>
       <c r="D313" s="2">
-        <v>285.26</v>
+        <v>402.59</v>
       </c>
       <c r="E313" s="2">
-        <v>8.27</v>
+        <v>84.05</v>
       </c>
       <c r="F313" s="3">
-        <v>0.0289910958423894</v>
+        <v>0.2087731935716237</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6718,19 +6716,19 @@
         <v>2024</v>
       </c>
       <c r="B314" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C314" s="1">
-        <v>45347</v>
+        <v>45377</v>
       </c>
       <c r="D314" s="2">
-        <v>0</v>
+        <v>471.23</v>
       </c>
       <c r="E314" s="2">
-        <v>0</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>8</v>
+        <v>13.47</v>
+      </c>
+      <c r="F314" s="3">
+        <v>0.02858476752329011</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6738,19 +6736,19 @@
         <v>2024</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C315" s="1">
-        <v>45348</v>
+        <v>45378</v>
       </c>
       <c r="D315" s="2">
-        <v>358.78</v>
+        <v>467.53</v>
       </c>
       <c r="E315" s="2">
-        <v>27.7</v>
+        <v>17.45</v>
       </c>
       <c r="F315" s="3">
-        <v>0.07720608729583589</v>
+        <v>0.03732380809787608</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6758,19 +6756,19 @@
         <v>2024</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C316" s="1">
-        <v>45349</v>
+        <v>45379</v>
       </c>
       <c r="D316" s="2">
-        <v>382.37</v>
+        <v>0</v>
       </c>
       <c r="E316" s="2">
-        <v>1.89</v>
-      </c>
-      <c r="F316" s="3">
-        <v>0.004942856395637732</v>
+        <v>0</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6778,19 +6776,19 @@
         <v>2024</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C317" s="1">
-        <v>45350</v>
+        <v>45380</v>
       </c>
       <c r="D317" s="2">
-        <v>401.98</v>
+        <v>0</v>
       </c>
       <c r="E317" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F317" s="3">
-        <v>0.01293596696353052</v>
+        <v>0</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6798,19 +6796,19 @@
         <v>2024</v>
       </c>
       <c r="B318" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C318" s="1">
-        <v>45351</v>
+        <v>45381</v>
       </c>
       <c r="D318" s="2">
-        <v>317.51</v>
+        <v>298.99</v>
       </c>
       <c r="E318" s="2">
-        <v>0</v>
+        <v>298.99</v>
       </c>
       <c r="F318" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6820,17 +6818,17 @@
       <c r="B319" t="s">
         <v>18</v>
       </c>
-      <c r="C319" s="1" t="s">
-        <v>6</v>
+      <c r="C319" s="1">
+        <v>45382</v>
       </c>
       <c r="D319" s="2">
-        <v>10485.78</v>
+        <v>0</v>
       </c>
       <c r="E319" s="2">
-        <v>978.2800000000002</v>
-      </c>
-      <c r="F319" s="3">
-        <v>0.09329587307763466</v>
+        <v>0</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6838,19 +6836,19 @@
         <v>2024</v>
       </c>
       <c r="B320" t="s">
-        <v>18</v>
-      </c>
-      <c r="C320" s="1">
-        <v>45352</v>
+        <v>19</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D320" s="2">
-        <v>446.59</v>
+        <v>9993.079999999998</v>
       </c>
       <c r="E320" s="2">
-        <v>4.84</v>
+        <v>546.21</v>
       </c>
       <c r="F320" s="3">
-        <v>0.01083768109451622</v>
+        <v>0.05465882390614307</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6858,19 +6856,19 @@
         <v>2024</v>
       </c>
       <c r="B321" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C321" s="1">
-        <v>45353</v>
+        <v>45383</v>
       </c>
       <c r="D321" s="2">
-        <v>335.53</v>
+        <v>338.3</v>
       </c>
       <c r="E321" s="2">
-        <v>6.84</v>
+        <v>18.38</v>
       </c>
       <c r="F321" s="3">
-        <v>0.02038565851041636</v>
+        <v>0.05433047590895655</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6878,19 +6876,19 @@
         <v>2024</v>
       </c>
       <c r="B322" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C322" s="1">
-        <v>45354</v>
+        <v>45384</v>
       </c>
       <c r="D322" s="2">
-        <v>0</v>
+        <v>397.8</v>
       </c>
       <c r="E322" s="2">
-        <v>0</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>8</v>
+        <v>8.74</v>
+      </c>
+      <c r="F322" s="3">
+        <v>0.02197083961789844</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6898,19 +6896,19 @@
         <v>2024</v>
       </c>
       <c r="B323" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C323" s="1">
-        <v>45355</v>
+        <v>45385</v>
       </c>
       <c r="D323" s="2">
-        <v>424.48</v>
+        <v>534.64</v>
       </c>
       <c r="E323" s="2">
-        <v>56.01</v>
+        <v>10.63</v>
       </c>
       <c r="F323" s="3">
-        <v>0.1319496796079909</v>
+        <v>0.01988253778243304</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6918,19 +6916,19 @@
         <v>2024</v>
       </c>
       <c r="B324" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C324" s="1">
-        <v>45356</v>
+        <v>45386</v>
       </c>
       <c r="D324" s="2">
-        <v>423.08</v>
+        <v>618.1900000000001</v>
       </c>
       <c r="E324" s="2">
-        <v>21.87</v>
+        <v>20.52</v>
       </c>
       <c r="F324" s="3">
-        <v>0.05169235132835398</v>
+        <v>0.03319367831896342</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6938,19 +6936,19 @@
         <v>2024</v>
       </c>
       <c r="B325" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C325" s="1">
-        <v>45357</v>
+        <v>45387</v>
       </c>
       <c r="D325" s="2">
-        <v>554.71</v>
+        <v>610.77</v>
       </c>
       <c r="E325" s="2">
-        <v>32.5</v>
+        <v>14.55</v>
       </c>
       <c r="F325" s="3">
-        <v>0.05858917272088118</v>
+        <v>0.02382238813301243</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6958,19 +6956,19 @@
         <v>2024</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C326" s="1">
-        <v>45358</v>
+        <v>45388</v>
       </c>
       <c r="D326" s="2">
-        <v>656.7</v>
+        <v>387.87</v>
       </c>
       <c r="E326" s="2">
-        <v>55.96</v>
+        <v>12.38</v>
       </c>
       <c r="F326" s="3">
-        <v>0.08521394853053144</v>
+        <v>0.03191791064016294</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6978,19 +6976,19 @@
         <v>2024</v>
       </c>
       <c r="B327" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C327" s="1">
-        <v>45359</v>
+        <v>45389</v>
       </c>
       <c r="D327" s="2">
-        <v>667.74</v>
+        <v>0</v>
       </c>
       <c r="E327" s="2">
-        <v>31.45</v>
-      </c>
-      <c r="F327" s="3">
-        <v>0.04709917033575942</v>
+        <v>0</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6998,19 +6996,19 @@
         <v>2024</v>
       </c>
       <c r="B328" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C328" s="1">
-        <v>45360</v>
+        <v>45390</v>
       </c>
       <c r="D328" s="2">
-        <v>427.8</v>
+        <v>492.53</v>
       </c>
       <c r="E328" s="2">
-        <v>70.97</v>
+        <v>68.66</v>
       </c>
       <c r="F328" s="3">
-        <v>0.1658952781673679</v>
+        <v>0.1394026759791282</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7018,19 +7016,19 @@
         <v>2024</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C329" s="1">
-        <v>45361</v>
+        <v>45391</v>
       </c>
       <c r="D329" s="2">
-        <v>0</v>
+        <v>513.3200000000001</v>
       </c>
       <c r="E329" s="2">
-        <v>0</v>
-      </c>
-      <c r="F329" s="3" t="s">
-        <v>8</v>
+        <v>15.53</v>
+      </c>
+      <c r="F329" s="3">
+        <v>0.0302540325722746</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7038,19 +7036,19 @@
         <v>2024</v>
       </c>
       <c r="B330" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C330" s="1">
-        <v>45362</v>
+        <v>45392</v>
       </c>
       <c r="D330" s="2">
-        <v>491.18</v>
+        <v>551.72</v>
       </c>
       <c r="E330" s="2">
-        <v>101.12</v>
+        <v>11.66</v>
       </c>
       <c r="F330" s="3">
-        <v>0.205871574575512</v>
+        <v>0.02113390850431378</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7058,19 +7056,19 @@
         <v>2024</v>
       </c>
       <c r="B331" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C331" s="1">
-        <v>45363</v>
+        <v>45393</v>
       </c>
       <c r="D331" s="2">
-        <v>524.87</v>
+        <v>560.6799999999999</v>
       </c>
       <c r="E331" s="2">
-        <v>10.03</v>
+        <v>5.8</v>
       </c>
       <c r="F331" s="3">
-        <v>0.01910949377941204</v>
+        <v>0.01034458157951059</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7078,19 +7076,19 @@
         <v>2024</v>
       </c>
       <c r="B332" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C332" s="1">
-        <v>45364</v>
+        <v>45394</v>
       </c>
       <c r="D332" s="2">
-        <v>506.92</v>
+        <v>494.31</v>
       </c>
       <c r="E332" s="2">
-        <v>2.07</v>
+        <v>16.2</v>
       </c>
       <c r="F332" s="3">
-        <v>0.004083484573502722</v>
+        <v>0.03277295624203435</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7098,19 +7096,19 @@
         <v>2024</v>
       </c>
       <c r="B333" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C333" s="1">
-        <v>45365</v>
+        <v>45395</v>
       </c>
       <c r="D333" s="2">
-        <v>450.68</v>
+        <v>432.07</v>
       </c>
       <c r="E333" s="2">
-        <v>33.76</v>
+        <v>32.54</v>
       </c>
       <c r="F333" s="3">
-        <v>0.07490902636016686</v>
+        <v>0.07531187076168214</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7118,19 +7116,19 @@
         <v>2024</v>
       </c>
       <c r="B334" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C334" s="1">
-        <v>45366</v>
+        <v>45396</v>
       </c>
       <c r="D334" s="2">
-        <v>483.31</v>
+        <v>0</v>
       </c>
       <c r="E334" s="2">
-        <v>20.38</v>
-      </c>
-      <c r="F334" s="3">
-        <v>0.04216755291634768</v>
+        <v>0</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7138,19 +7136,19 @@
         <v>2024</v>
       </c>
       <c r="B335" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C335" s="1">
-        <v>45367</v>
+        <v>45397</v>
       </c>
       <c r="D335" s="2">
-        <v>328.12</v>
+        <v>471.76</v>
       </c>
       <c r="E335" s="2">
-        <v>15.49</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="F335" s="3">
-        <v>0.04720833841277582</v>
+        <v>0.1827412243513651</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7158,19 +7156,19 @@
         <v>2024</v>
       </c>
       <c r="B336" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C336" s="1">
-        <v>45368</v>
+        <v>45398</v>
       </c>
       <c r="D336" s="2">
-        <v>0</v>
+        <v>387.47</v>
       </c>
       <c r="E336" s="2">
-        <v>0</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>8</v>
+        <v>20.84</v>
+      </c>
+      <c r="F336" s="3">
+        <v>0.05378480914651457</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7178,19 +7176,19 @@
         <v>2024</v>
       </c>
       <c r="B337" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C337" s="1">
-        <v>45369</v>
+        <v>45399</v>
       </c>
       <c r="D337" s="2">
-        <v>343.61</v>
+        <v>469.41</v>
       </c>
       <c r="E337" s="2">
-        <v>45.95</v>
+        <v>16.73</v>
       </c>
       <c r="F337" s="3">
-        <v>0.1337271907103984</v>
+        <v>0.03564048486397819</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7198,19 +7196,19 @@
         <v>2024</v>
       </c>
       <c r="B338" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C338" s="1">
-        <v>45370</v>
+        <v>45400</v>
       </c>
       <c r="D338" s="2">
-        <v>309.59</v>
+        <v>459.05</v>
       </c>
       <c r="E338" s="2">
-        <v>21.71</v>
+        <v>21.11</v>
       </c>
       <c r="F338" s="3">
-        <v>0.07012500403759812</v>
+        <v>0.04598627600479251</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7218,19 +7216,19 @@
         <v>2024</v>
       </c>
       <c r="B339" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C339" s="1">
-        <v>45371</v>
+        <v>45401</v>
       </c>
       <c r="D339" s="2">
-        <v>350.22</v>
+        <v>439.35</v>
       </c>
       <c r="E339" s="2">
-        <v>3.86</v>
+        <v>29.39</v>
       </c>
       <c r="F339" s="3">
-        <v>0.01102164353834732</v>
+        <v>0.06689427563446</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7238,19 +7236,19 @@
         <v>2024</v>
       </c>
       <c r="B340" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C340" s="1">
-        <v>45372</v>
+        <v>45402</v>
       </c>
       <c r="D340" s="2">
-        <v>395.75</v>
+        <v>244.98</v>
       </c>
       <c r="E340" s="2">
-        <v>9.09</v>
+        <v>18.99</v>
       </c>
       <c r="F340" s="3">
-        <v>0.02296904611497157</v>
+        <v>0.0775165319617928</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7258,19 +7256,19 @@
         <v>2024</v>
       </c>
       <c r="B341" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C341" s="1">
-        <v>45373</v>
+        <v>45403</v>
       </c>
       <c r="D341" s="2">
-        <v>406.02</v>
+        <v>0</v>
       </c>
       <c r="E341" s="2">
-        <v>6.63</v>
-      </c>
-      <c r="F341" s="3">
-        <v>0.01632924486478499</v>
+        <v>0</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7278,19 +7276,19 @@
         <v>2024</v>
       </c>
       <c r="B342" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C342" s="1">
-        <v>45374</v>
+        <v>45404</v>
       </c>
       <c r="D342" s="2">
-        <v>318.54</v>
+        <v>352.58</v>
       </c>
       <c r="E342" s="2">
-        <v>13.79</v>
+        <v>58.05</v>
       </c>
       <c r="F342" s="3">
-        <v>0.04329126640296352</v>
+        <v>0.1646434851664871</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7298,10 +7296,10 @@
         <v>2024</v>
       </c>
       <c r="B343" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C343" s="1">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="D343" s="2">
         <v>0</v>
@@ -7318,19 +7316,19 @@
         <v>2024</v>
       </c>
       <c r="B344" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C344" s="1">
-        <v>45376</v>
+        <v>45406</v>
       </c>
       <c r="D344" s="2">
-        <v>402.59</v>
+        <v>237.94</v>
       </c>
       <c r="E344" s="2">
-        <v>84.05</v>
+        <v>6.21</v>
       </c>
       <c r="F344" s="3">
-        <v>0.2087731935716237</v>
+        <v>0.02609901655879633</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7338,19 +7336,19 @@
         <v>2024</v>
       </c>
       <c r="B345" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C345" s="1">
-        <v>45377</v>
+        <v>45407</v>
       </c>
       <c r="D345" s="2">
-        <v>471.23</v>
+        <v>253.02</v>
       </c>
       <c r="E345" s="2">
-        <v>13.47</v>
+        <v>2.86</v>
       </c>
       <c r="F345" s="3">
-        <v>0.02858476752329011</v>
+        <v>0.01130345427238953</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7358,19 +7356,19 @@
         <v>2024</v>
       </c>
       <c r="B346" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C346" s="1">
-        <v>45378</v>
+        <v>45408</v>
       </c>
       <c r="D346" s="2">
-        <v>467.53</v>
+        <v>245.74</v>
       </c>
       <c r="E346" s="2">
-        <v>17.45</v>
+        <v>10.16</v>
       </c>
       <c r="F346" s="3">
-        <v>0.03732380809787608</v>
+        <v>0.04134451045820786</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7378,10 +7376,10 @@
         <v>2024</v>
       </c>
       <c r="B347" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C347" s="1">
-        <v>45379</v>
+        <v>45409</v>
       </c>
       <c r="D347" s="2">
         <v>0</v>
@@ -7398,10 +7396,10 @@
         <v>2024</v>
       </c>
       <c r="B348" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C348" s="1">
-        <v>45380</v>
+        <v>45410</v>
       </c>
       <c r="D348" s="2">
         <v>0</v>
@@ -7418,19 +7416,19 @@
         <v>2024</v>
       </c>
       <c r="B349" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C349" s="1">
-        <v>45381</v>
+        <v>45411</v>
       </c>
       <c r="D349" s="2">
-        <v>298.99</v>
+        <v>227.89</v>
       </c>
       <c r="E349" s="2">
-        <v>298.99</v>
+        <v>34.77</v>
       </c>
       <c r="F349" s="3">
-        <v>1</v>
+        <v>0.1525736100750362</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7438,19 +7436,19 @@
         <v>2024</v>
       </c>
       <c r="B350" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C350" s="1">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="D350" s="2">
-        <v>0</v>
+        <v>271.69</v>
       </c>
       <c r="E350" s="2">
-        <v>0</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>8</v>
+        <v>5.3</v>
+      </c>
+      <c r="F350" s="3">
+        <v>0.01950752696087453</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7458,19 +7456,19 @@
         <v>2024</v>
       </c>
       <c r="B351" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D351" s="2">
-        <v>9993.079999999998</v>
+        <v>9068.720000000003</v>
       </c>
       <c r="E351" s="2">
-        <v>546.21</v>
+        <v>409.9099999999999</v>
       </c>
       <c r="F351" s="3">
-        <v>0.05465882390614307</v>
+        <v>0.04520042519782282</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7478,19 +7476,19 @@
         <v>2024</v>
       </c>
       <c r="B352" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C352" s="1">
-        <v>45383</v>
+        <v>45414</v>
       </c>
       <c r="D352" s="2">
-        <v>338.3</v>
+        <v>365.04</v>
       </c>
       <c r="E352" s="2">
-        <v>18.38</v>
+        <v>33.62</v>
       </c>
       <c r="F352" s="3">
-        <v>0.05433047590895655</v>
+        <v>0.09209949594564978</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7498,19 +7496,19 @@
         <v>2024</v>
       </c>
       <c r="B353" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C353" s="1">
-        <v>45384</v>
+        <v>45415</v>
       </c>
       <c r="D353" s="2">
-        <v>397.8</v>
+        <v>280.88</v>
       </c>
       <c r="E353" s="2">
-        <v>8.74</v>
+        <v>6.33</v>
       </c>
       <c r="F353" s="3">
-        <v>0.02197083961789844</v>
+        <v>0.02253631444033039</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7518,19 +7516,19 @@
         <v>2024</v>
       </c>
       <c r="B354" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C354" s="1">
-        <v>45385</v>
+        <v>45416</v>
       </c>
       <c r="D354" s="2">
-        <v>534.64</v>
+        <v>133.04</v>
       </c>
       <c r="E354" s="2">
-        <v>10.63</v>
+        <v>0</v>
       </c>
       <c r="F354" s="3">
-        <v>0.01988253778243304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7538,19 +7536,19 @@
         <v>2024</v>
       </c>
       <c r="B355" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C355" s="1">
-        <v>45386</v>
+        <v>45417</v>
       </c>
       <c r="D355" s="2">
-        <v>618.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="E355" s="2">
-        <v>20.52</v>
-      </c>
-      <c r="F355" s="3">
-        <v>0.03319367831896342</v>
+        <v>0</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7558,19 +7556,19 @@
         <v>2024</v>
       </c>
       <c r="B356" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C356" s="1">
-        <v>45387</v>
+        <v>45418</v>
       </c>
       <c r="D356" s="2">
-        <v>610.77</v>
+        <v>392.43</v>
       </c>
       <c r="E356" s="2">
-        <v>14.55</v>
+        <v>41.75</v>
       </c>
       <c r="F356" s="3">
-        <v>0.02382238813301243</v>
+        <v>0.1063884004790663</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7578,19 +7576,19 @@
         <v>2024</v>
       </c>
       <c r="B357" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C357" s="1">
-        <v>45388</v>
+        <v>45419</v>
       </c>
       <c r="D357" s="2">
-        <v>387.87</v>
+        <v>525.67</v>
       </c>
       <c r="E357" s="2">
-        <v>12.38</v>
+        <v>8.84</v>
       </c>
       <c r="F357" s="3">
-        <v>0.03191791064016294</v>
+        <v>0.01681663400993019</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7598,19 +7596,19 @@
         <v>2024</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C358" s="1">
-        <v>45389</v>
+        <v>45420</v>
       </c>
       <c r="D358" s="2">
-        <v>0</v>
+        <v>568.01</v>
       </c>
       <c r="E358" s="2">
-        <v>0</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>8</v>
+        <v>31.83</v>
+      </c>
+      <c r="F358" s="3">
+        <v>0.05603774581433425</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7618,19 +7616,19 @@
         <v>2024</v>
       </c>
       <c r="B359" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C359" s="1">
-        <v>45390</v>
+        <v>45421</v>
       </c>
       <c r="D359" s="2">
-        <v>492.53</v>
+        <v>561.72</v>
       </c>
       <c r="E359" s="2">
-        <v>68.66</v>
+        <v>32.42</v>
       </c>
       <c r="F359" s="3">
-        <v>0.1394026759791282</v>
+        <v>0.05771558783735668</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7638,19 +7636,19 @@
         <v>2024</v>
       </c>
       <c r="B360" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C360" s="1">
-        <v>45391</v>
+        <v>45422</v>
       </c>
       <c r="D360" s="2">
-        <v>513.3200000000001</v>
+        <v>447.92</v>
       </c>
       <c r="E360" s="2">
-        <v>15.53</v>
+        <v>2.64</v>
       </c>
       <c r="F360" s="3">
-        <v>0.0302540325722746</v>
+        <v>0.005893909626719057</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7658,19 +7656,19 @@
         <v>2024</v>
       </c>
       <c r="B361" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C361" s="1">
-        <v>45392</v>
+        <v>45423</v>
       </c>
       <c r="D361" s="2">
-        <v>551.72</v>
+        <v>328.57</v>
       </c>
       <c r="E361" s="2">
-        <v>11.66</v>
+        <v>27.92</v>
       </c>
       <c r="F361" s="3">
-        <v>0.02113390850431378</v>
+        <v>0.08497428249688042</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7678,19 +7676,19 @@
         <v>2024</v>
       </c>
       <c r="B362" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C362" s="1">
-        <v>45393</v>
+        <v>45424</v>
       </c>
       <c r="D362" s="2">
-        <v>560.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="E362" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="F362" s="3">
-        <v>0.01034458157951059</v>
+        <v>0</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7698,19 +7696,19 @@
         <v>2024</v>
       </c>
       <c r="B363" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C363" s="1">
-        <v>45394</v>
+        <v>45425</v>
       </c>
       <c r="D363" s="2">
-        <v>494.31</v>
+        <v>322.89</v>
       </c>
       <c r="E363" s="2">
-        <v>16.2</v>
+        <v>31.01</v>
       </c>
       <c r="F363" s="3">
-        <v>0.03277295624203435</v>
+        <v>0.0960388986961504</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7718,19 +7716,19 @@
         <v>2024</v>
       </c>
       <c r="B364" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C364" s="1">
-        <v>45395</v>
+        <v>45426</v>
       </c>
       <c r="D364" s="2">
-        <v>432.07</v>
+        <v>392.73</v>
       </c>
       <c r="E364" s="2">
-        <v>32.54</v>
+        <v>0</v>
       </c>
       <c r="F364" s="3">
-        <v>0.07531187076168214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7738,19 +7736,19 @@
         <v>2024</v>
       </c>
       <c r="B365" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C365" s="1">
-        <v>45396</v>
+        <v>45427</v>
       </c>
       <c r="D365" s="2">
-        <v>0</v>
+        <v>378.72</v>
       </c>
       <c r="E365" s="2">
-        <v>0</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>8</v>
+        <v>8.710000000000001</v>
+      </c>
+      <c r="F365" s="3">
+        <v>0.02299852133502324</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7758,19 +7756,19 @@
         <v>2024</v>
       </c>
       <c r="B366" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C366" s="1">
-        <v>45397</v>
+        <v>45428</v>
       </c>
       <c r="D366" s="2">
-        <v>471.76</v>
+        <v>367.06</v>
       </c>
       <c r="E366" s="2">
-        <v>86.20999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="F366" s="3">
-        <v>0.1827412243513651</v>
+        <v>0.04004794856426742</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7778,19 +7776,19 @@
         <v>2024</v>
       </c>
       <c r="B367" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C367" s="1">
-        <v>45398</v>
+        <v>45429</v>
       </c>
       <c r="D367" s="2">
-        <v>387.47</v>
+        <v>385.74</v>
       </c>
       <c r="E367" s="2">
-        <v>20.84</v>
+        <v>25.88</v>
       </c>
       <c r="F367" s="3">
-        <v>0.05378480914651457</v>
+        <v>0.06709182350806242</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7798,19 +7796,19 @@
         <v>2024</v>
       </c>
       <c r="B368" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C368" s="1">
-        <v>45399</v>
+        <v>45430</v>
       </c>
       <c r="D368" s="2">
-        <v>469.41</v>
+        <v>262.47</v>
       </c>
       <c r="E368" s="2">
-        <v>16.73</v>
+        <v>6.12</v>
       </c>
       <c r="F368" s="3">
-        <v>0.03564048486397819</v>
+        <v>0.02331695050862955</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7818,19 +7816,19 @@
         <v>2024</v>
       </c>
       <c r="B369" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C369" s="1">
-        <v>45400</v>
+        <v>45431</v>
       </c>
       <c r="D369" s="2">
-        <v>459.05</v>
+        <v>0</v>
       </c>
       <c r="E369" s="2">
-        <v>21.11</v>
-      </c>
-      <c r="F369" s="3">
-        <v>0.04598627600479251</v>
+        <v>0</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7838,19 +7836,19 @@
         <v>2024</v>
       </c>
       <c r="B370" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C370" s="1">
-        <v>45401</v>
+        <v>45432</v>
       </c>
       <c r="D370" s="2">
-        <v>439.35</v>
+        <v>331.99</v>
       </c>
       <c r="E370" s="2">
-        <v>29.39</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F370" s="3">
-        <v>0.06689427563446</v>
+        <v>0.2024458568029157</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7858,19 +7856,19 @@
         <v>2024</v>
       </c>
       <c r="B371" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C371" s="1">
-        <v>45402</v>
+        <v>45433</v>
       </c>
       <c r="D371" s="2">
-        <v>244.98</v>
+        <v>396.49</v>
       </c>
       <c r="E371" s="2">
-        <v>18.99</v>
+        <v>0</v>
       </c>
       <c r="F371" s="3">
-        <v>0.0775165319617928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7878,19 +7876,19 @@
         <v>2024</v>
       </c>
       <c r="B372" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C372" s="1">
-        <v>45403</v>
+        <v>45434</v>
       </c>
       <c r="D372" s="2">
-        <v>0</v>
+        <v>331.05</v>
       </c>
       <c r="E372" s="2">
-        <v>0</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>8</v>
+        <v>1.66</v>
+      </c>
+      <c r="F372" s="3">
+        <v>0.005014348285757438</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7898,19 +7896,19 @@
         <v>2024</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C373" s="1">
-        <v>45404</v>
+        <v>45435</v>
       </c>
       <c r="D373" s="2">
-        <v>352.58</v>
+        <v>342.3</v>
       </c>
       <c r="E373" s="2">
-        <v>58.05</v>
+        <v>12.78</v>
       </c>
       <c r="F373" s="3">
-        <v>0.1646434851664871</v>
+        <v>0.03733567046450482</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7918,19 +7916,19 @@
         <v>2024</v>
       </c>
       <c r="B374" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C374" s="1">
-        <v>45405</v>
+        <v>45436</v>
       </c>
       <c r="D374" s="2">
-        <v>0</v>
+        <v>328.47</v>
       </c>
       <c r="E374" s="2">
-        <v>0</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>8</v>
+        <v>2.24</v>
+      </c>
+      <c r="F374" s="3">
+        <v>0.006819496453252962</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7938,19 +7936,19 @@
         <v>2024</v>
       </c>
       <c r="B375" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C375" s="1">
-        <v>45406</v>
+        <v>45437</v>
       </c>
       <c r="D375" s="2">
-        <v>237.94</v>
+        <v>220.35</v>
       </c>
       <c r="E375" s="2">
-        <v>6.21</v>
+        <v>1.01</v>
       </c>
       <c r="F375" s="3">
-        <v>0.02609901655879633</v>
+        <v>0.004583616972997504</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7958,19 +7956,19 @@
         <v>2024</v>
       </c>
       <c r="B376" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C376" s="1">
-        <v>45407</v>
+        <v>45438</v>
       </c>
       <c r="D376" s="2">
-        <v>253.02</v>
+        <v>0</v>
       </c>
       <c r="E376" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="F376" s="3">
-        <v>0.01130345427238953</v>
+        <v>0</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7978,19 +7976,19 @@
         <v>2024</v>
       </c>
       <c r="B377" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C377" s="1">
-        <v>45408</v>
+        <v>45439</v>
       </c>
       <c r="D377" s="2">
-        <v>245.74</v>
+        <v>0</v>
       </c>
       <c r="E377" s="2">
-        <v>10.16</v>
-      </c>
-      <c r="F377" s="3">
-        <v>0.04134451045820786</v>
+        <v>0</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7998,19 +7996,19 @@
         <v>2024</v>
       </c>
       <c r="B378" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C378" s="1">
-        <v>45409</v>
+        <v>45440</v>
       </c>
       <c r="D378" s="2">
-        <v>0</v>
+        <v>328.03</v>
       </c>
       <c r="E378" s="2">
-        <v>0</v>
-      </c>
-      <c r="F378" s="3" t="s">
-        <v>8</v>
+        <v>21.78</v>
+      </c>
+      <c r="F378" s="3">
+        <v>0.06639636618601959</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8018,19 +8016,19 @@
         <v>2024</v>
       </c>
       <c r="B379" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C379" s="1">
-        <v>45410</v>
+        <v>45441</v>
       </c>
       <c r="D379" s="2">
-        <v>0</v>
+        <v>400.44</v>
       </c>
       <c r="E379" s="2">
-        <v>0</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>8</v>
+        <v>8.69</v>
+      </c>
+      <c r="F379" s="3">
+        <v>0.0217011287583658</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8038,19 +8036,19 @@
         <v>2024</v>
       </c>
       <c r="B380" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C380" s="1">
-        <v>45411</v>
+        <v>45442</v>
       </c>
       <c r="D380" s="2">
-        <v>227.89</v>
+        <v>382.88</v>
       </c>
       <c r="E380" s="2">
-        <v>34.77</v>
+        <v>19.09</v>
       </c>
       <c r="F380" s="3">
-        <v>0.1525736100750362</v>
+        <v>0.04985896364396156</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8058,19 +8056,19 @@
         <v>2024</v>
       </c>
       <c r="B381" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C381" s="1">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="D381" s="2">
-        <v>271.69</v>
+        <v>293.83</v>
       </c>
       <c r="E381" s="2">
-        <v>5.3</v>
+        <v>3.68</v>
       </c>
       <c r="F381" s="3">
-        <v>0.01950752696087453</v>
+        <v>0.01252424871524351</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8078,19 +8076,19 @@
         <v>2024</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D382" s="2">
-        <v>9068.720000000003</v>
+        <v>7148.030000000002</v>
       </c>
       <c r="E382" s="2">
-        <v>409.9099999999999</v>
+        <v>396.47</v>
       </c>
       <c r="F382" s="3">
-        <v>0.04520042519782282</v>
+        <v>0.05546563178945806</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8098,19 +8096,19 @@
         <v>2024</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C383" s="1">
-        <v>45414</v>
+        <v>45444</v>
       </c>
       <c r="D383" s="2">
-        <v>365.04</v>
+        <v>206.37</v>
       </c>
       <c r="E383" s="2">
-        <v>33.62</v>
+        <v>4.99</v>
       </c>
       <c r="F383" s="3">
-        <v>0.09209949594564978</v>
+        <v>0.02417987110529631</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8118,19 +8116,19 @@
         <v>2024</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C384" s="1">
-        <v>45415</v>
+        <v>45445</v>
       </c>
       <c r="D384" s="2">
-        <v>280.88</v>
+        <v>0</v>
       </c>
       <c r="E384" s="2">
-        <v>6.33</v>
-      </c>
-      <c r="F384" s="3">
-        <v>0.02253631444033039</v>
+        <v>0</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8138,19 +8136,19 @@
         <v>2024</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C385" s="1">
-        <v>45416</v>
+        <v>45446</v>
       </c>
       <c r="D385" s="2">
-        <v>133.04</v>
+        <v>378.37</v>
       </c>
       <c r="E385" s="2">
-        <v>0</v>
+        <v>51.72</v>
       </c>
       <c r="F385" s="3">
-        <v>0</v>
+        <v>0.1366915981711024</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8158,19 +8156,19 @@
         <v>2024</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C386" s="1">
-        <v>45417</v>
+        <v>45447</v>
       </c>
       <c r="D386" s="2">
-        <v>0</v>
+        <v>419.8</v>
       </c>
       <c r="E386" s="2">
-        <v>0</v>
-      </c>
-      <c r="F386" s="3" t="s">
-        <v>8</v>
+        <v>13.7</v>
+      </c>
+      <c r="F386" s="3">
+        <v>0.03263458789899952</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8178,19 +8176,19 @@
         <v>2024</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C387" s="1">
-        <v>45418</v>
+        <v>45448</v>
       </c>
       <c r="D387" s="2">
-        <v>392.43</v>
+        <v>277.73</v>
       </c>
       <c r="E387" s="2">
-        <v>41.75</v>
+        <v>26.05</v>
       </c>
       <c r="F387" s="3">
-        <v>0.1063884004790663</v>
+        <v>0.09379613293486479</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8198,19 +8196,19 @@
         <v>2024</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C388" s="1">
-        <v>45419</v>
+        <v>45449</v>
       </c>
       <c r="D388" s="2">
-        <v>525.67</v>
+        <v>246.58</v>
       </c>
       <c r="E388" s="2">
-        <v>8.84</v>
+        <v>16.51</v>
       </c>
       <c r="F388" s="3">
-        <v>0.01681663400993019</v>
+        <v>0.06695595749858059</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8218,19 +8216,19 @@
         <v>2024</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C389" s="1">
-        <v>45420</v>
+        <v>45450</v>
       </c>
       <c r="D389" s="2">
-        <v>568.01</v>
+        <v>114.56</v>
       </c>
       <c r="E389" s="2">
-        <v>31.83</v>
+        <v>1.43</v>
       </c>
       <c r="F389" s="3">
-        <v>0.05603774581433425</v>
+        <v>0.01248254189944134</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8238,19 +8236,19 @@
         <v>2024</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C390" s="1">
-        <v>45421</v>
+        <v>45451</v>
       </c>
       <c r="D390" s="2">
-        <v>561.72</v>
+        <v>0</v>
       </c>
       <c r="E390" s="2">
-        <v>32.42</v>
-      </c>
-      <c r="F390" s="3">
-        <v>0.05771558783735668</v>
+        <v>0</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8258,19 +8256,19 @@
         <v>2024</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C391" s="1">
-        <v>45422</v>
+        <v>45452</v>
       </c>
       <c r="D391" s="2">
-        <v>447.92</v>
+        <v>0</v>
       </c>
       <c r="E391" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="F391" s="3">
-        <v>0.005893909626719057</v>
+        <v>0</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8278,19 +8276,19 @@
         <v>2024</v>
       </c>
       <c r="B392" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C392" s="1">
-        <v>45423</v>
+        <v>45453</v>
       </c>
       <c r="D392" s="2">
-        <v>328.57</v>
+        <v>219.27</v>
       </c>
       <c r="E392" s="2">
-        <v>27.92</v>
+        <v>34.86</v>
       </c>
       <c r="F392" s="3">
-        <v>0.08497428249688042</v>
+        <v>0.1589820768915036</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8298,19 +8296,19 @@
         <v>2024</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C393" s="1">
-        <v>45424</v>
+        <v>45454</v>
       </c>
       <c r="D393" s="2">
-        <v>0</v>
+        <v>317.48</v>
       </c>
       <c r="E393" s="2">
-        <v>0</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>8</v>
+        <v>17.48</v>
+      </c>
+      <c r="F393" s="3">
+        <v>0.05505858636764521</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8318,19 +8316,19 @@
         <v>2024</v>
       </c>
       <c r="B394" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C394" s="1">
-        <v>45425</v>
+        <v>45455</v>
       </c>
       <c r="D394" s="2">
-        <v>322.89</v>
+        <v>291.26</v>
       </c>
       <c r="E394" s="2">
-        <v>31.01</v>
+        <v>13.01</v>
       </c>
       <c r="F394" s="3">
-        <v>0.0960388986961504</v>
+        <v>0.0446679942319577</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8338,19 +8336,19 @@
         <v>2024</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C395" s="1">
-        <v>45426</v>
+        <v>45456</v>
       </c>
       <c r="D395" s="2">
-        <v>392.73</v>
+        <v>324.41</v>
       </c>
       <c r="E395" s="2">
-        <v>0</v>
+        <v>32.87</v>
       </c>
       <c r="F395" s="3">
-        <v>0</v>
+        <v>0.1013224006658241</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8358,19 +8356,19 @@
         <v>2024</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C396" s="1">
-        <v>45427</v>
+        <v>45457</v>
       </c>
       <c r="D396" s="2">
-        <v>378.72</v>
+        <v>287.25</v>
       </c>
       <c r="E396" s="2">
-        <v>8.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="F396" s="3">
-        <v>0.02299852133502324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8378,19 +8376,19 @@
         <v>2024</v>
       </c>
       <c r="B397" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C397" s="1">
-        <v>45428</v>
+        <v>45458</v>
       </c>
       <c r="D397" s="2">
-        <v>367.06</v>
+        <v>0</v>
       </c>
       <c r="E397" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="F397" s="3">
-        <v>0.04004794856426742</v>
+        <v>0</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8398,19 +8396,19 @@
         <v>2024</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C398" s="1">
-        <v>45429</v>
+        <v>45459</v>
       </c>
       <c r="D398" s="2">
-        <v>385.74</v>
+        <v>207.55</v>
       </c>
       <c r="E398" s="2">
-        <v>25.88</v>
+        <v>53.7</v>
       </c>
       <c r="F398" s="3">
-        <v>0.06709182350806242</v>
+        <v>0.2587328354613346</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8418,19 +8416,19 @@
         <v>2024</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C399" s="1">
-        <v>45430</v>
+        <v>45460</v>
       </c>
       <c r="D399" s="2">
-        <v>262.47</v>
+        <v>296.56</v>
       </c>
       <c r="E399" s="2">
-        <v>6.12</v>
+        <v>44.33</v>
       </c>
       <c r="F399" s="3">
-        <v>0.02331695050862955</v>
+        <v>0.1494807121661721</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8438,19 +8436,19 @@
         <v>2024</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C400" s="1">
-        <v>45431</v>
+        <v>45461</v>
       </c>
       <c r="D400" s="2">
-        <v>0</v>
+        <v>337.26</v>
       </c>
       <c r="E400" s="2">
-        <v>0</v>
-      </c>
-      <c r="F400" s="3" t="s">
-        <v>8</v>
+        <v>9.68</v>
+      </c>
+      <c r="F400" s="3">
+        <v>0.02870189171559034</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8458,19 +8456,19 @@
         <v>2024</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C401" s="1">
-        <v>45432</v>
+        <v>45462</v>
       </c>
       <c r="D401" s="2">
-        <v>331.99</v>
+        <v>296.42</v>
       </c>
       <c r="E401" s="2">
-        <v>67.20999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="F401" s="3">
-        <v>0.2024458568029157</v>
+        <v>0.0006072464745968557</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8478,13 +8476,13 @@
         <v>2024</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C402" s="1">
-        <v>45433</v>
+        <v>45463</v>
       </c>
       <c r="D402" s="2">
-        <v>396.49</v>
+        <v>355.78</v>
       </c>
       <c r="E402" s="2">
         <v>0</v>
@@ -8498,19 +8496,19 @@
         <v>2024</v>
       </c>
       <c r="B403" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C403" s="1">
-        <v>45434</v>
+        <v>45464</v>
       </c>
       <c r="D403" s="2">
-        <v>331.05</v>
+        <v>392.52</v>
       </c>
       <c r="E403" s="2">
-        <v>1.66</v>
+        <v>5.55</v>
       </c>
       <c r="F403" s="3">
-        <v>0.005014348285757438</v>
+        <v>0.01413940690920208</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8518,19 +8516,19 @@
         <v>2024</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C404" s="1">
-        <v>45435</v>
+        <v>45465</v>
       </c>
       <c r="D404" s="2">
-        <v>342.3</v>
+        <v>216.74</v>
       </c>
       <c r="E404" s="2">
-        <v>12.78</v>
+        <v>0</v>
       </c>
       <c r="F404" s="3">
-        <v>0.03733567046450482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8538,19 +8536,19 @@
         <v>2024</v>
       </c>
       <c r="B405" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C405" s="1">
-        <v>45436</v>
+        <v>45466</v>
       </c>
       <c r="D405" s="2">
-        <v>328.47</v>
+        <v>0</v>
       </c>
       <c r="E405" s="2">
-        <v>2.24</v>
-      </c>
-      <c r="F405" s="3">
-        <v>0.006819496453252962</v>
+        <v>0</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8558,19 +8556,19 @@
         <v>2024</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C406" s="1">
-        <v>45437</v>
+        <v>45467</v>
       </c>
       <c r="D406" s="2">
-        <v>220.35</v>
+        <v>0</v>
       </c>
       <c r="E406" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="F406" s="3">
-        <v>0.004583616972997504</v>
+        <v>0</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8578,19 +8576,19 @@
         <v>2024</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C407" s="1">
-        <v>45438</v>
+        <v>45468</v>
       </c>
       <c r="D407" s="2">
-        <v>0</v>
+        <v>329.19</v>
       </c>
       <c r="E407" s="2">
-        <v>0</v>
-      </c>
-      <c r="F407" s="3" t="s">
-        <v>8</v>
+        <v>29.01</v>
+      </c>
+      <c r="F407" s="3">
+        <v>0.08812539870591453</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8598,19 +8596,19 @@
         <v>2024</v>
       </c>
       <c r="B408" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C408" s="1">
-        <v>45439</v>
+        <v>45469</v>
       </c>
       <c r="D408" s="2">
-        <v>0</v>
+        <v>397.68</v>
       </c>
       <c r="E408" s="2">
-        <v>0</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>8</v>
+        <v>9.73</v>
+      </c>
+      <c r="F408" s="3">
+        <v>0.02446690806678737</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8618,19 +8616,19 @@
         <v>2024</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C409" s="1">
-        <v>45440</v>
+        <v>45470</v>
       </c>
       <c r="D409" s="2">
-        <v>328.03</v>
+        <v>476.98</v>
       </c>
       <c r="E409" s="2">
-        <v>21.78</v>
+        <v>14.67</v>
       </c>
       <c r="F409" s="3">
-        <v>0.06639636618601959</v>
+        <v>0.03075600654115477</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8638,19 +8636,19 @@
         <v>2024</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C410" s="1">
-        <v>45441</v>
+        <v>45471</v>
       </c>
       <c r="D410" s="2">
-        <v>400.44</v>
+        <v>479.68</v>
       </c>
       <c r="E410" s="2">
-        <v>8.69</v>
+        <v>11.85</v>
       </c>
       <c r="F410" s="3">
-        <v>0.0217011287583658</v>
+        <v>0.02470396931287525</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8658,19 +8656,19 @@
         <v>2024</v>
       </c>
       <c r="B411" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C411" s="1">
-        <v>45442</v>
+        <v>45472</v>
       </c>
       <c r="D411" s="2">
-        <v>382.88</v>
+        <v>0</v>
       </c>
       <c r="E411" s="2">
-        <v>19.09</v>
-      </c>
-      <c r="F411" s="3">
-        <v>0.04985896364396156</v>
+        <v>0</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8678,19 +8676,19 @@
         <v>2024</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C412" s="1">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="D412" s="2">
-        <v>293.83</v>
+        <v>278.59</v>
       </c>
       <c r="E412" s="2">
-        <v>3.68</v>
+        <v>5.15</v>
       </c>
       <c r="F412" s="3">
-        <v>0.01252424871524351</v>
+        <v>0.01848594709070678</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8698,19 +8696,19 @@
         <v>2024</v>
       </c>
       <c r="B413" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D413" s="2">
-        <v>4220.87</v>
+        <v>11166.03</v>
       </c>
       <c r="E413" s="2">
-        <v>320.51</v>
+        <v>610.39</v>
       </c>
       <c r="F413" s="3">
-        <v>0.07593458220698576</v>
+        <v>0.05466490776041261</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8718,19 +8716,19 @@
         <v>2024</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C414" s="1">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="D414" s="2">
-        <v>206.37</v>
+        <v>388.65</v>
       </c>
       <c r="E414" s="2">
-        <v>4.99</v>
+        <v>64.61</v>
       </c>
       <c r="F414" s="3">
-        <v>0.02417987110529631</v>
+        <v>0.1662421201595266</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8738,19 +8736,19 @@
         <v>2024</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C415" s="1">
-        <v>45445</v>
+        <v>45475</v>
       </c>
       <c r="D415" s="2">
-        <v>0</v>
+        <v>476.95</v>
       </c>
       <c r="E415" s="2">
-        <v>0</v>
-      </c>
-      <c r="F415" s="3" t="s">
-        <v>8</v>
+        <v>7.1</v>
+      </c>
+      <c r="F415" s="3">
+        <v>0.01488625642100849</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8758,19 +8756,19 @@
         <v>2024</v>
       </c>
       <c r="B416" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C416" s="1">
-        <v>45446</v>
+        <v>45476</v>
       </c>
       <c r="D416" s="2">
-        <v>378.37</v>
+        <v>598.38</v>
       </c>
       <c r="E416" s="2">
-        <v>51.72</v>
+        <v>19.73</v>
       </c>
       <c r="F416" s="3">
-        <v>0.1366915981711024</v>
+        <v>0.03297235870182827</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8778,19 +8776,19 @@
         <v>2024</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C417" s="1">
-        <v>45447</v>
+        <v>45477</v>
       </c>
       <c r="D417" s="2">
-        <v>419.8</v>
+        <v>605.86</v>
       </c>
       <c r="E417" s="2">
-        <v>13.7</v>
+        <v>25.16</v>
       </c>
       <c r="F417" s="3">
-        <v>0.03263458789899952</v>
+        <v>0.04152774568382134</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8798,19 +8796,19 @@
         <v>2024</v>
       </c>
       <c r="B418" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C418" s="1">
-        <v>45448</v>
+        <v>45478</v>
       </c>
       <c r="D418" s="2">
-        <v>277.73</v>
+        <v>616.5599999999999</v>
       </c>
       <c r="E418" s="2">
-        <v>26.05</v>
+        <v>1.48</v>
       </c>
       <c r="F418" s="3">
-        <v>0.09379613293486479</v>
+        <v>0.002400415206954717</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8818,19 +8816,19 @@
         <v>2024</v>
       </c>
       <c r="B419" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C419" s="1">
-        <v>45449</v>
+        <v>45479</v>
       </c>
       <c r="D419" s="2">
-        <v>246.58</v>
+        <v>451.86</v>
       </c>
       <c r="E419" s="2">
-        <v>16.51</v>
+        <v>10.66</v>
       </c>
       <c r="F419" s="3">
-        <v>0.06695595749858059</v>
+        <v>0.02359137786039924</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8838,19 +8836,19 @@
         <v>2024</v>
       </c>
       <c r="B420" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C420" s="1">
-        <v>45450</v>
+        <v>45480</v>
       </c>
       <c r="D420" s="2">
-        <v>114.56</v>
+        <v>0</v>
       </c>
       <c r="E420" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="F420" s="3">
-        <v>0.01248254189944134</v>
+        <v>0</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8858,19 +8856,19 @@
         <v>2024</v>
       </c>
       <c r="B421" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C421" s="1">
-        <v>45451</v>
+        <v>45481</v>
       </c>
       <c r="D421" s="2">
-        <v>0</v>
+        <v>595.16</v>
       </c>
       <c r="E421" s="2">
-        <v>0</v>
-      </c>
-      <c r="F421" s="3" t="s">
-        <v>8</v>
+        <v>119.67</v>
+      </c>
+      <c r="F421" s="3">
+        <v>0.2010719806438605</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8878,19 +8876,19 @@
         <v>2024</v>
       </c>
       <c r="B422" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C422" s="1">
-        <v>45452</v>
+        <v>45482</v>
       </c>
       <c r="D422" s="2">
-        <v>0</v>
+        <v>539.46</v>
       </c>
       <c r="E422" s="2">
-        <v>0</v>
-      </c>
-      <c r="F422" s="3" t="s">
-        <v>8</v>
+        <v>3.88</v>
+      </c>
+      <c r="F422" s="3">
+        <v>0.007192377562747932</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8898,19 +8896,19 @@
         <v>2024</v>
       </c>
       <c r="B423" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C423" s="1">
-        <v>45453</v>
+        <v>45483</v>
       </c>
       <c r="D423" s="2">
-        <v>219.27</v>
+        <v>406.59</v>
       </c>
       <c r="E423" s="2">
-        <v>34.86</v>
+        <v>0.96</v>
       </c>
       <c r="F423" s="3">
-        <v>0.1589820768915036</v>
+        <v>0.002361100863277503</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8918,19 +8916,19 @@
         <v>2024</v>
       </c>
       <c r="B424" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C424" s="1">
-        <v>45454</v>
+        <v>45484</v>
       </c>
       <c r="D424" s="2">
-        <v>317.48</v>
+        <v>355.78</v>
       </c>
       <c r="E424" s="2">
-        <v>17.48</v>
+        <v>12.65</v>
       </c>
       <c r="F424" s="3">
-        <v>0.05505858636764521</v>
+        <v>0.03555568047669909</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8938,19 +8936,19 @@
         <v>2024</v>
       </c>
       <c r="B425" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C425" s="1">
-        <v>45455</v>
+        <v>45485</v>
       </c>
       <c r="D425" s="2">
-        <v>291.26</v>
+        <v>328.52</v>
       </c>
       <c r="E425" s="2">
-        <v>13.01</v>
+        <v>7.37</v>
       </c>
       <c r="F425" s="3">
-        <v>0.0446679942319577</v>
+        <v>0.0224339461828808</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8958,19 +8956,19 @@
         <v>2024</v>
       </c>
       <c r="B426" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C426" s="1">
-        <v>45456</v>
+        <v>45486</v>
       </c>
       <c r="D426" s="2">
-        <v>324.41</v>
+        <v>176.75</v>
       </c>
       <c r="E426" s="2">
-        <v>32.87</v>
+        <v>0</v>
       </c>
       <c r="F426" s="3">
-        <v>0.1013224006658241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8978,19 +8976,19 @@
         <v>2024</v>
       </c>
       <c r="B427" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C427" s="1">
-        <v>45457</v>
+        <v>45487</v>
       </c>
       <c r="D427" s="2">
-        <v>287.25</v>
+        <v>0</v>
       </c>
       <c r="E427" s="2">
         <v>0</v>
       </c>
-      <c r="F427" s="3">
-        <v>0</v>
+      <c r="F427" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8998,19 +8996,19 @@
         <v>2024</v>
       </c>
       <c r="B428" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C428" s="1">
-        <v>45458</v>
+        <v>45488</v>
       </c>
       <c r="D428" s="2">
-        <v>0</v>
+        <v>316.27</v>
       </c>
       <c r="E428" s="2">
-        <v>0</v>
-      </c>
-      <c r="F428" s="3" t="s">
-        <v>8</v>
+        <v>9.949999999999999</v>
+      </c>
+      <c r="F428" s="3">
+        <v>0.03146046099851393</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9018,19 +9016,19 @@
         <v>2024</v>
       </c>
       <c r="B429" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C429" s="1">
-        <v>45459</v>
+        <v>45489</v>
       </c>
       <c r="D429" s="2">
-        <v>207.55</v>
+        <v>380.68</v>
       </c>
       <c r="E429" s="2">
-        <v>53.7</v>
+        <v>4.7</v>
       </c>
       <c r="F429" s="3">
-        <v>0.2587328354613346</v>
+        <v>0.01234632762425134</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9038,19 +9036,19 @@
         <v>2024</v>
       </c>
       <c r="B430" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C430" s="1">
-        <v>45460</v>
+        <v>45490</v>
       </c>
       <c r="D430" s="2">
-        <v>296.56</v>
+        <v>518.11</v>
       </c>
       <c r="E430" s="2">
-        <v>44.33</v>
+        <v>7.64</v>
       </c>
       <c r="F430" s="3">
-        <v>0.1494807121661721</v>
+        <v>0.01474590337959121</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9058,19 +9056,19 @@
         <v>2024</v>
       </c>
       <c r="B431" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C431" s="1">
-        <v>45461</v>
+        <v>45491</v>
       </c>
       <c r="D431" s="2">
-        <v>337.26</v>
+        <v>465.21</v>
       </c>
       <c r="E431" s="2">
-        <v>9.68</v>
+        <v>27.44</v>
       </c>
       <c r="F431" s="3">
-        <v>0.02870189171559034</v>
+        <v>0.05898411470088777</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9078,25 +9076,2205 @@
         <v>2024</v>
       </c>
       <c r="B432" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C432" s="1">
-        <v>45462</v>
+        <v>45492</v>
       </c>
       <c r="D432" s="2">
-        <v>296.42</v>
+        <v>516.64</v>
       </c>
       <c r="E432" s="2">
-        <v>0.18</v>
+        <v>1.72</v>
       </c>
       <c r="F432" s="3">
-        <v>0.0006072464745968557</v>
+        <v>0.003329204087952927</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433">
+        <v>2024</v>
+      </c>
+      <c r="B433" t="s">
+        <v>10</v>
+      </c>
+      <c r="C433" s="1">
+        <v>45493</v>
+      </c>
+      <c r="D433" s="2">
+        <v>323.1</v>
+      </c>
+      <c r="E433" s="2">
+        <v>20.51</v>
+      </c>
+      <c r="F433" s="3">
+        <v>0.06347879913339523</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434">
+        <v>2024</v>
+      </c>
+      <c r="B434" t="s">
+        <v>10</v>
+      </c>
+      <c r="C434" s="1">
+        <v>45494</v>
+      </c>
+      <c r="D434" s="2">
+        <v>0</v>
+      </c>
+      <c r="E434" s="2">
+        <v>0</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435">
+        <v>2024</v>
+      </c>
+      <c r="B435" t="s">
+        <v>10</v>
+      </c>
+      <c r="C435" s="1">
+        <v>45495</v>
+      </c>
+      <c r="D435" s="2">
+        <v>0</v>
+      </c>
+      <c r="E435" s="2">
+        <v>0</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436">
+        <v>2024</v>
+      </c>
+      <c r="B436" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436" s="1">
+        <v>45496</v>
+      </c>
+      <c r="D436" s="2">
+        <v>412.92</v>
+      </c>
+      <c r="E436" s="2">
+        <v>62.76</v>
+      </c>
+      <c r="F436" s="3">
+        <v>0.1519907003777971</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437">
+        <v>2024</v>
+      </c>
+      <c r="B437" t="s">
+        <v>10</v>
+      </c>
+      <c r="C437" s="1">
+        <v>45497</v>
+      </c>
+      <c r="D437" s="2">
+        <v>413.7</v>
+      </c>
+      <c r="E437" s="2">
+        <v>9.94</v>
+      </c>
+      <c r="F437" s="3">
+        <v>0.02402707275803722</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438">
+        <v>2024</v>
+      </c>
+      <c r="B438" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" s="1">
+        <v>45498</v>
+      </c>
+      <c r="D438" s="2">
+        <v>449.45</v>
+      </c>
+      <c r="E438" s="2">
+        <v>12.98</v>
+      </c>
+      <c r="F438" s="3">
+        <v>0.02887974190677495</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439">
+        <v>2024</v>
+      </c>
+      <c r="B439" t="s">
+        <v>10</v>
+      </c>
+      <c r="C439" s="1">
+        <v>45499</v>
+      </c>
+      <c r="D439" s="2">
+        <v>586.24</v>
+      </c>
+      <c r="E439" s="2">
+        <v>13.67</v>
+      </c>
+      <c r="F439" s="3">
+        <v>0.02331809497816594</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440">
+        <v>2024</v>
+      </c>
+      <c r="B440" t="s">
+        <v>10</v>
+      </c>
+      <c r="C440" s="1">
+        <v>45500</v>
+      </c>
+      <c r="D440" s="2">
+        <v>0</v>
+      </c>
+      <c r="E440" s="2">
+        <v>0</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441">
+        <v>2024</v>
+      </c>
+      <c r="B441" t="s">
+        <v>10</v>
+      </c>
+      <c r="C441" s="1">
+        <v>45501</v>
+      </c>
+      <c r="D441" s="2">
+        <v>375.14</v>
+      </c>
+      <c r="E441" s="2">
+        <v>150.33</v>
+      </c>
+      <c r="F441" s="3">
+        <v>0.4007303939862452</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442">
+        <v>2024</v>
+      </c>
+      <c r="B442" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" s="1">
+        <v>45502</v>
+      </c>
+      <c r="D442" s="2">
+        <v>0</v>
+      </c>
+      <c r="E442" s="2">
+        <v>0</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443">
+        <v>2024</v>
+      </c>
+      <c r="B443" t="s">
+        <v>10</v>
+      </c>
+      <c r="C443" s="1">
+        <v>45503</v>
+      </c>
+      <c r="D443" s="2">
+        <v>456.3</v>
+      </c>
+      <c r="E443" s="2">
+        <v>15.48</v>
+      </c>
+      <c r="F443" s="3">
+        <v>0.0339250493096647</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444">
+        <v>2024</v>
+      </c>
+      <c r="B444" t="s">
+        <v>10</v>
+      </c>
+      <c r="C444" s="1">
+        <v>45504</v>
+      </c>
+      <c r="D444" s="2">
+        <v>411.75</v>
+      </c>
+      <c r="E444" s="2">
+        <v>0</v>
+      </c>
+      <c r="F444" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445">
+        <v>2024</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" s="2">
+        <v>11644.23</v>
+      </c>
+      <c r="E445" s="2">
+        <v>405.4000000000001</v>
+      </c>
+      <c r="F445" s="3">
+        <v>0.03481552665998525</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446">
+        <v>2024</v>
+      </c>
+      <c r="B446" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446" s="1">
+        <v>45505</v>
+      </c>
+      <c r="D446" s="2">
+        <v>423.57</v>
+      </c>
+      <c r="E446" s="2">
+        <v>0</v>
+      </c>
+      <c r="F446" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447">
+        <v>2024</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" s="1">
+        <v>45506</v>
+      </c>
+      <c r="D447" s="2">
+        <v>533.97</v>
+      </c>
+      <c r="E447" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="F447" s="3">
+        <v>0.04625728037155645</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448">
+        <v>2024</v>
+      </c>
+      <c r="B448" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" s="1">
+        <v>45507</v>
+      </c>
+      <c r="D448" s="2">
+        <v>358.41</v>
+      </c>
+      <c r="E448" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="F448" s="3">
+        <v>0.07449568929438352</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449">
+        <v>2024</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" s="1">
+        <v>45508</v>
+      </c>
+      <c r="D449" s="2">
+        <v>0</v>
+      </c>
+      <c r="E449" s="2">
+        <v>0</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450">
+        <v>2024</v>
+      </c>
+      <c r="B450" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" s="1">
+        <v>45509</v>
+      </c>
+      <c r="D450" s="2">
+        <v>0</v>
+      </c>
+      <c r="E450" s="2">
+        <v>0</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451">
+        <v>2024</v>
+      </c>
+      <c r="B451" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451" s="1">
+        <v>45510</v>
+      </c>
+      <c r="D451" s="2">
+        <v>382.07</v>
+      </c>
+      <c r="E451" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="F451" s="3">
+        <v>0.03970476614232994</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452">
+        <v>2024</v>
+      </c>
+      <c r="B452" t="s">
+        <v>11</v>
+      </c>
+      <c r="C452" s="1">
+        <v>45511</v>
+      </c>
+      <c r="D452" s="2">
+        <v>498.43</v>
+      </c>
+      <c r="E452" s="2">
+        <v>0</v>
+      </c>
+      <c r="F452" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453">
+        <v>2024</v>
+      </c>
+      <c r="B453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" s="1">
+        <v>45512</v>
+      </c>
+      <c r="D453" s="2">
+        <v>538</v>
+      </c>
+      <c r="E453" s="2">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="F453" s="3">
+        <v>0.0166542750929368</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454">
+        <v>2024</v>
+      </c>
+      <c r="B454" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" s="1">
+        <v>45513</v>
+      </c>
+      <c r="D454" s="2">
+        <v>637.58</v>
+      </c>
+      <c r="E454" s="2">
+        <v>30.06</v>
+      </c>
+      <c r="F454" s="3">
+        <v>0.04714702468709808</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455">
+        <v>2024</v>
+      </c>
+      <c r="B455" t="s">
+        <v>11</v>
+      </c>
+      <c r="C455" s="1">
+        <v>45514</v>
+      </c>
+      <c r="D455" s="2">
+        <v>479.01</v>
+      </c>
+      <c r="E455" s="2">
+        <v>11.35</v>
+      </c>
+      <c r="F455" s="3">
+        <v>0.02369470365963132</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456">
+        <v>2024</v>
+      </c>
+      <c r="B456" t="s">
+        <v>11</v>
+      </c>
+      <c r="C456" s="1">
+        <v>45515</v>
+      </c>
+      <c r="D456" s="2">
+        <v>0</v>
+      </c>
+      <c r="E456" s="2">
+        <v>0</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457">
+        <v>2024</v>
+      </c>
+      <c r="B457" t="s">
+        <v>11</v>
+      </c>
+      <c r="C457" s="1">
+        <v>45516</v>
+      </c>
+      <c r="D457" s="2">
+        <v>525.35</v>
+      </c>
+      <c r="E457" s="2">
+        <v>60.77</v>
+      </c>
+      <c r="F457" s="3">
+        <v>0.1156752641096412</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458">
+        <v>2024</v>
+      </c>
+      <c r="B458" t="s">
+        <v>11</v>
+      </c>
+      <c r="C458" s="1">
+        <v>45517</v>
+      </c>
+      <c r="D458" s="2">
+        <v>525.37</v>
+      </c>
+      <c r="E458" s="2">
+        <v>23.43</v>
+      </c>
+      <c r="F458" s="3">
+        <v>0.04459714106248929</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459">
+        <v>2024</v>
+      </c>
+      <c r="B459" t="s">
+        <v>11</v>
+      </c>
+      <c r="C459" s="1">
+        <v>45518</v>
+      </c>
+      <c r="D459" s="2">
+        <v>610.15</v>
+      </c>
+      <c r="E459" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="F459" s="3">
+        <v>0.008358600344177661</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460">
+        <v>2024</v>
+      </c>
+      <c r="B460" t="s">
+        <v>11</v>
+      </c>
+      <c r="C460" s="1">
+        <v>45519</v>
+      </c>
+      <c r="D460" s="2">
+        <v>559.15</v>
+      </c>
+      <c r="E460" s="2">
+        <v>20.27</v>
+      </c>
+      <c r="F460" s="3">
+        <v>0.03625145309845301</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461">
+        <v>2024</v>
+      </c>
+      <c r="B461" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461" s="1">
+        <v>45520</v>
+      </c>
+      <c r="D461" s="2">
+        <v>535.04</v>
+      </c>
+      <c r="E461" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="F461" s="3">
+        <v>0.01127018540669857</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462">
+        <v>2024</v>
+      </c>
+      <c r="B462" t="s">
+        <v>11</v>
+      </c>
+      <c r="C462" s="1">
+        <v>45521</v>
+      </c>
+      <c r="D462" s="2">
+        <v>389.73</v>
+      </c>
+      <c r="E462" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="F462" s="3">
+        <v>0.006594308880507017</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463">
+        <v>2024</v>
+      </c>
+      <c r="B463" t="s">
+        <v>11</v>
+      </c>
+      <c r="C463" s="1">
+        <v>45522</v>
+      </c>
+      <c r="D463" s="2">
+        <v>0</v>
+      </c>
+      <c r="E463" s="2">
+        <v>0</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464">
+        <v>2024</v>
+      </c>
+      <c r="B464" t="s">
+        <v>11</v>
+      </c>
+      <c r="C464" s="1">
+        <v>45523</v>
+      </c>
+      <c r="D464" s="2">
+        <v>463.51</v>
+      </c>
+      <c r="E464" s="2">
+        <v>33.17</v>
+      </c>
+      <c r="F464" s="3">
+        <v>0.07156264158270588</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465">
+        <v>2024</v>
+      </c>
+      <c r="B465" t="s">
+        <v>11</v>
+      </c>
+      <c r="C465" s="1">
+        <v>45524</v>
+      </c>
+      <c r="D465" s="2">
+        <v>547.05</v>
+      </c>
+      <c r="E465" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="F465" s="3">
+        <v>0.00815281966913445</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466">
+        <v>2024</v>
+      </c>
+      <c r="B466" t="s">
+        <v>11</v>
+      </c>
+      <c r="C466" s="1">
+        <v>45525</v>
+      </c>
+      <c r="D466" s="2">
+        <v>584</v>
+      </c>
+      <c r="E466" s="2">
+        <v>15.15</v>
+      </c>
+      <c r="F466" s="3">
+        <v>0.02594178082191781</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467">
+        <v>2024</v>
+      </c>
+      <c r="B467" t="s">
+        <v>11</v>
+      </c>
+      <c r="C467" s="1">
+        <v>45526</v>
+      </c>
+      <c r="D467" s="2">
+        <v>627.02</v>
+      </c>
+      <c r="E467" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="F467" s="3">
+        <v>0.005916876654652166</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468">
+        <v>2024</v>
+      </c>
+      <c r="B468" t="s">
+        <v>11</v>
+      </c>
+      <c r="C468" s="1">
+        <v>45527</v>
+      </c>
+      <c r="D468" s="2">
+        <v>0</v>
+      </c>
+      <c r="E468" s="2">
+        <v>0</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469">
+        <v>2024</v>
+      </c>
+      <c r="B469" t="s">
+        <v>11</v>
+      </c>
+      <c r="C469" s="1">
+        <v>45528</v>
+      </c>
+      <c r="D469" s="2">
+        <v>281.46</v>
+      </c>
+      <c r="E469" s="2">
+        <v>37.01</v>
+      </c>
+      <c r="F469" s="3">
+        <v>0.1314929297235842</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470">
+        <v>2024</v>
+      </c>
+      <c r="B470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C470" s="1">
+        <v>45529</v>
+      </c>
+      <c r="D470" s="2">
+        <v>0</v>
+      </c>
+      <c r="E470" s="2">
+        <v>0</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471">
+        <v>2024</v>
+      </c>
+      <c r="B471" t="s">
+        <v>11</v>
+      </c>
+      <c r="C471" s="1">
+        <v>45530</v>
+      </c>
+      <c r="D471" s="2">
+        <v>440.49</v>
+      </c>
+      <c r="E471" s="2">
+        <v>48.89</v>
+      </c>
+      <c r="F471" s="3">
+        <v>0.1109900338259665</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472">
+        <v>2024</v>
+      </c>
+      <c r="B472" t="s">
+        <v>11</v>
+      </c>
+      <c r="C472" s="1">
+        <v>45531</v>
+      </c>
+      <c r="D472" s="2">
+        <v>514.9</v>
+      </c>
+      <c r="E472" s="2">
+        <v>0</v>
+      </c>
+      <c r="F472" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473">
+        <v>2024</v>
+      </c>
+      <c r="B473" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473" s="1">
+        <v>45532</v>
+      </c>
+      <c r="D473" s="2">
+        <v>517.97</v>
+      </c>
+      <c r="E473" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="F473" s="3">
+        <v>0.005579473714693901</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474">
+        <v>2024</v>
+      </c>
+      <c r="B474" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474" s="1">
+        <v>45533</v>
+      </c>
+      <c r="D474" s="2">
+        <v>508.95</v>
+      </c>
+      <c r="E474" s="2">
+        <v>25.01</v>
+      </c>
+      <c r="F474" s="3">
+        <v>0.04914038707142156</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475">
+        <v>2024</v>
+      </c>
+      <c r="B475" t="s">
+        <v>11</v>
+      </c>
+      <c r="C475" s="1">
+        <v>45534</v>
+      </c>
+      <c r="D475" s="2">
+        <v>163.05</v>
+      </c>
+      <c r="E475" s="2">
+        <v>0</v>
+      </c>
+      <c r="F475" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476">
+        <v>2024</v>
+      </c>
+      <c r="B476" t="s">
+        <v>11</v>
+      </c>
+      <c r="C476" s="1">
+        <v>45535</v>
+      </c>
+      <c r="D476" s="2">
+        <v>0</v>
+      </c>
+      <c r="E476" s="2">
+        <v>0</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477">
+        <v>2024</v>
+      </c>
+      <c r="B477" t="s">
+        <v>12</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" s="2">
+        <v>4491.29</v>
+      </c>
+      <c r="E477" s="2">
+        <v>62.67999999999999</v>
+      </c>
+      <c r="F477" s="3">
+        <v>0.01395590131120457</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478">
+        <v>2024</v>
+      </c>
+      <c r="B478" t="s">
+        <v>12</v>
+      </c>
+      <c r="C478" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D478" s="2">
+        <v>0</v>
+      </c>
+      <c r="E478" s="2">
+        <v>0</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479">
+        <v>2024</v>
+      </c>
+      <c r="B479" t="s">
+        <v>12</v>
+      </c>
+      <c r="C479" s="1">
+        <v>45537</v>
+      </c>
+      <c r="D479" s="2">
+        <v>332.04</v>
+      </c>
+      <c r="E479" s="2">
+        <v>15.62</v>
+      </c>
+      <c r="F479" s="3">
+        <v>0.04704252499698831</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480">
+        <v>2024</v>
+      </c>
+      <c r="B480" t="s">
+        <v>12</v>
+      </c>
+      <c r="C480" s="1">
+        <v>45538</v>
+      </c>
+      <c r="D480" s="2">
+        <v>465.53</v>
+      </c>
+      <c r="E480" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="F480" s="3">
+        <v>0.00640130603827895</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481">
+        <v>2024</v>
+      </c>
+      <c r="B481" t="s">
+        <v>12</v>
+      </c>
+      <c r="C481" s="1">
+        <v>45539</v>
+      </c>
+      <c r="D481" s="2">
+        <v>511.47</v>
+      </c>
+      <c r="E481" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="F481" s="3">
+        <v>0.01861301738127358</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482">
+        <v>2024</v>
+      </c>
+      <c r="B482" t="s">
+        <v>12</v>
+      </c>
+      <c r="C482" s="1">
+        <v>45540</v>
+      </c>
+      <c r="D482" s="2">
+        <v>470.87</v>
+      </c>
+      <c r="E482" s="2">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F482" s="3">
+        <v>0.02064264021916877</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483">
+        <v>2024</v>
+      </c>
+      <c r="B483" t="s">
+        <v>12</v>
+      </c>
+      <c r="C483" s="1">
+        <v>45541</v>
+      </c>
+      <c r="D483" s="2">
+        <v>0</v>
+      </c>
+      <c r="E483" s="2">
+        <v>0</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484">
+        <v>2024</v>
+      </c>
+      <c r="B484" t="s">
+        <v>12</v>
+      </c>
+      <c r="C484" s="1">
+        <v>45542</v>
+      </c>
+      <c r="D484" s="2">
+        <v>272.26</v>
+      </c>
+      <c r="E484" s="2">
+        <v>5.36</v>
+      </c>
+      <c r="F484" s="3">
+        <v>0.01968706383603908</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485">
+        <v>2024</v>
+      </c>
+      <c r="B485" t="s">
+        <v>12</v>
+      </c>
+      <c r="C485" s="1">
+        <v>45543</v>
+      </c>
+      <c r="D485" s="2">
+        <v>0</v>
+      </c>
+      <c r="E485" s="2">
+        <v>0</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486">
+        <v>2024</v>
+      </c>
+      <c r="B486" t="s">
+        <v>12</v>
+      </c>
+      <c r="C486" s="1">
+        <v>45544</v>
+      </c>
+      <c r="D486" s="2">
+        <v>366.95</v>
+      </c>
+      <c r="E486" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="F486" s="3">
+        <v>0.01675977653631285</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487">
+        <v>2024</v>
+      </c>
+      <c r="B487" t="s">
+        <v>12</v>
+      </c>
+      <c r="C487" s="1">
+        <v>45545</v>
+      </c>
+      <c r="D487" s="2">
+        <v>393.05</v>
+      </c>
+      <c r="E487" s="2">
+        <v>0</v>
+      </c>
+      <c r="F487" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488">
+        <v>2024</v>
+      </c>
+      <c r="B488" t="s">
+        <v>12</v>
+      </c>
+      <c r="C488" s="1">
+        <v>45546</v>
+      </c>
+      <c r="D488" s="2">
+        <v>362.91</v>
+      </c>
+      <c r="E488" s="2">
+        <v>0</v>
+      </c>
+      <c r="F488" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489">
+        <v>2024</v>
+      </c>
+      <c r="B489" t="s">
+        <v>12</v>
+      </c>
+      <c r="C489" s="1">
+        <v>45547</v>
+      </c>
+      <c r="D489" s="2">
+        <v>396.4</v>
+      </c>
+      <c r="E489" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F489" s="3">
+        <v>0.001337033299697276</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490">
+        <v>2024</v>
+      </c>
+      <c r="B490" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="1">
+        <v>45548</v>
+      </c>
+      <c r="D490" s="2">
+        <v>424.69</v>
+      </c>
+      <c r="E490" s="2">
+        <v>0</v>
+      </c>
+      <c r="F490" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491">
+        <v>2024</v>
+      </c>
+      <c r="B491" t="s">
+        <v>12</v>
+      </c>
+      <c r="C491" s="1">
+        <v>45549</v>
+      </c>
+      <c r="D491" s="2">
+        <v>159.45</v>
+      </c>
+      <c r="E491" s="2">
+        <v>0</v>
+      </c>
+      <c r="F491" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492">
+        <v>2024</v>
+      </c>
+      <c r="B492" t="s">
+        <v>12</v>
+      </c>
+      <c r="C492" s="1">
+        <v>45550</v>
+      </c>
+      <c r="D492" s="2">
+        <v>0</v>
+      </c>
+      <c r="E492" s="2">
+        <v>0</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493">
+        <v>2024</v>
+      </c>
+      <c r="B493" t="s">
+        <v>12</v>
+      </c>
+      <c r="C493" s="1">
+        <v>45551</v>
+      </c>
+      <c r="D493" s="2">
+        <v>335.67</v>
+      </c>
+      <c r="E493" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="F493" s="3">
+        <v>0.03813268984419221</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494">
+        <v>2024</v>
+      </c>
+      <c r="B494" t="s">
+        <v>12</v>
+      </c>
+      <c r="C494" s="1">
+        <v>45552</v>
+      </c>
+      <c r="D494" s="2">
+        <v>0</v>
+      </c>
+      <c r="E494" s="2">
+        <v>0</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495">
+        <v>2024</v>
+      </c>
+      <c r="B495" t="s">
+        <v>12</v>
+      </c>
+      <c r="C495" s="1">
+        <v>45553</v>
+      </c>
+      <c r="D495" s="2">
+        <v>0</v>
+      </c>
+      <c r="E495" s="2">
+        <v>0</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496">
+        <v>2024</v>
+      </c>
+      <c r="B496" t="s">
+        <v>12</v>
+      </c>
+      <c r="C496" s="1">
+        <v>45554</v>
+      </c>
+      <c r="D496" s="2">
+        <v>0</v>
+      </c>
+      <c r="E496" s="2">
+        <v>0</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497">
+        <v>2024</v>
+      </c>
+      <c r="B497" t="s">
+        <v>12</v>
+      </c>
+      <c r="C497" s="1">
+        <v>45555</v>
+      </c>
+      <c r="D497" s="2">
+        <v>0</v>
+      </c>
+      <c r="E497" s="2">
+        <v>0</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498">
+        <v>2024</v>
+      </c>
+      <c r="B498" t="s">
+        <v>12</v>
+      </c>
+      <c r="C498" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D498" s="2">
+        <v>0</v>
+      </c>
+      <c r="E498" s="2">
+        <v>0</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499">
+        <v>2024</v>
+      </c>
+      <c r="B499" t="s">
+        <v>12</v>
+      </c>
+      <c r="C499" s="1">
+        <v>45557</v>
+      </c>
+      <c r="D499" s="2">
+        <v>0</v>
+      </c>
+      <c r="E499" s="2">
+        <v>0</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500">
+        <v>2024</v>
+      </c>
+      <c r="B500" t="s">
+        <v>12</v>
+      </c>
+      <c r="C500" s="1">
+        <v>45558</v>
+      </c>
+      <c r="D500" s="2">
+        <v>0</v>
+      </c>
+      <c r="E500" s="2">
+        <v>0</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501">
+        <v>2024</v>
+      </c>
+      <c r="B501" t="s">
+        <v>12</v>
+      </c>
+      <c r="C501" s="1">
+        <v>45559</v>
+      </c>
+      <c r="D501" s="2">
+        <v>0</v>
+      </c>
+      <c r="E501" s="2">
+        <v>0</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502">
+        <v>2024</v>
+      </c>
+      <c r="B502" t="s">
+        <v>12</v>
+      </c>
+      <c r="C502" s="1">
+        <v>45560</v>
+      </c>
+      <c r="D502" s="2">
+        <v>0</v>
+      </c>
+      <c r="E502" s="2">
+        <v>0</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503">
+        <v>2024</v>
+      </c>
+      <c r="B503" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503" s="1">
+        <v>45561</v>
+      </c>
+      <c r="D503" s="2">
+        <v>0</v>
+      </c>
+      <c r="E503" s="2">
+        <v>0</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504">
+        <v>2024</v>
+      </c>
+      <c r="B504" t="s">
+        <v>12</v>
+      </c>
+      <c r="C504" s="1">
+        <v>45562</v>
+      </c>
+      <c r="D504" s="2">
+        <v>0</v>
+      </c>
+      <c r="E504" s="2">
+        <v>0</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505">
+        <v>2024</v>
+      </c>
+      <c r="B505" t="s">
+        <v>12</v>
+      </c>
+      <c r="C505" s="1">
+        <v>45563</v>
+      </c>
+      <c r="D505" s="2">
+        <v>0</v>
+      </c>
+      <c r="E505" s="2">
+        <v>0</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506">
+        <v>2024</v>
+      </c>
+      <c r="B506" t="s">
+        <v>12</v>
+      </c>
+      <c r="C506" s="1">
+        <v>45564</v>
+      </c>
+      <c r="D506" s="2">
+        <v>0</v>
+      </c>
+      <c r="E506" s="2">
+        <v>0</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507">
+        <v>2024</v>
+      </c>
+      <c r="B507" t="s">
+        <v>12</v>
+      </c>
+      <c r="C507" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D507" s="2">
+        <v>0</v>
+      </c>
+      <c r="E507" s="2">
+        <v>0</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508">
+        <v>2024</v>
+      </c>
+      <c r="B508" t="s">
+        <v>13</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508" s="2">
+        <v>0</v>
+      </c>
+      <c r="E508" s="2">
+        <v>0</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509">
+        <v>2024</v>
+      </c>
+      <c r="B509" t="s">
+        <v>13</v>
+      </c>
+      <c r="C509" s="1">
+        <v>45566</v>
+      </c>
+      <c r="D509" s="2">
+        <v>0</v>
+      </c>
+      <c r="E509" s="2">
+        <v>0</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510">
+        <v>2024</v>
+      </c>
+      <c r="B510" t="s">
+        <v>13</v>
+      </c>
+      <c r="C510" s="1">
+        <v>45567</v>
+      </c>
+      <c r="D510" s="2">
+        <v>0</v>
+      </c>
+      <c r="E510" s="2">
+        <v>0</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511">
+        <v>2024</v>
+      </c>
+      <c r="B511" t="s">
+        <v>13</v>
+      </c>
+      <c r="C511" s="1">
+        <v>45568</v>
+      </c>
+      <c r="D511" s="2">
+        <v>0</v>
+      </c>
+      <c r="E511" s="2">
+        <v>0</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512">
+        <v>2024</v>
+      </c>
+      <c r="B512" t="s">
+        <v>13</v>
+      </c>
+      <c r="C512" s="1">
+        <v>45569</v>
+      </c>
+      <c r="D512" s="2">
+        <v>0</v>
+      </c>
+      <c r="E512" s="2">
+        <v>0</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513">
+        <v>2024</v>
+      </c>
+      <c r="B513" t="s">
+        <v>13</v>
+      </c>
+      <c r="C513" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D513" s="2">
+        <v>0</v>
+      </c>
+      <c r="E513" s="2">
+        <v>0</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514">
+        <v>2024</v>
+      </c>
+      <c r="B514" t="s">
+        <v>13</v>
+      </c>
+      <c r="C514" s="1">
+        <v>45571</v>
+      </c>
+      <c r="D514" s="2">
+        <v>0</v>
+      </c>
+      <c r="E514" s="2">
+        <v>0</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515">
+        <v>2024</v>
+      </c>
+      <c r="B515" t="s">
+        <v>13</v>
+      </c>
+      <c r="C515" s="1">
+        <v>45572</v>
+      </c>
+      <c r="D515" s="2">
+        <v>0</v>
+      </c>
+      <c r="E515" s="2">
+        <v>0</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516">
+        <v>2024</v>
+      </c>
+      <c r="B516" t="s">
+        <v>13</v>
+      </c>
+      <c r="C516" s="1">
+        <v>45573</v>
+      </c>
+      <c r="D516" s="2">
+        <v>0</v>
+      </c>
+      <c r="E516" s="2">
+        <v>0</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517">
+        <v>2024</v>
+      </c>
+      <c r="B517" t="s">
+        <v>13</v>
+      </c>
+      <c r="C517" s="1">
+        <v>45574</v>
+      </c>
+      <c r="D517" s="2">
+        <v>0</v>
+      </c>
+      <c r="E517" s="2">
+        <v>0</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518">
+        <v>2024</v>
+      </c>
+      <c r="B518" t="s">
+        <v>13</v>
+      </c>
+      <c r="C518" s="1">
+        <v>45575</v>
+      </c>
+      <c r="D518" s="2">
+        <v>0</v>
+      </c>
+      <c r="E518" s="2">
+        <v>0</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519">
+        <v>2024</v>
+      </c>
+      <c r="B519" t="s">
+        <v>13</v>
+      </c>
+      <c r="C519" s="1">
+        <v>45576</v>
+      </c>
+      <c r="D519" s="2">
+        <v>0</v>
+      </c>
+      <c r="E519" s="2">
+        <v>0</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520">
+        <v>2024</v>
+      </c>
+      <c r="B520" t="s">
+        <v>13</v>
+      </c>
+      <c r="C520" s="1">
+        <v>45577</v>
+      </c>
+      <c r="D520" s="2">
+        <v>0</v>
+      </c>
+      <c r="E520" s="2">
+        <v>0</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521">
+        <v>2024</v>
+      </c>
+      <c r="B521" t="s">
+        <v>13</v>
+      </c>
+      <c r="C521" s="1">
+        <v>45578</v>
+      </c>
+      <c r="D521" s="2">
+        <v>0</v>
+      </c>
+      <c r="E521" s="2">
+        <v>0</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522">
+        <v>2024</v>
+      </c>
+      <c r="B522" t="s">
+        <v>13</v>
+      </c>
+      <c r="C522" s="1">
+        <v>45579</v>
+      </c>
+      <c r="D522" s="2">
+        <v>0</v>
+      </c>
+      <c r="E522" s="2">
+        <v>0</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523">
+        <v>2024</v>
+      </c>
+      <c r="B523" t="s">
+        <v>13</v>
+      </c>
+      <c r="C523" s="1">
+        <v>45580</v>
+      </c>
+      <c r="D523" s="2">
+        <v>0</v>
+      </c>
+      <c r="E523" s="2">
+        <v>0</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524">
+        <v>2024</v>
+      </c>
+      <c r="B524" t="s">
+        <v>13</v>
+      </c>
+      <c r="C524" s="1">
+        <v>45581</v>
+      </c>
+      <c r="D524" s="2">
+        <v>0</v>
+      </c>
+      <c r="E524" s="2">
+        <v>0</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525">
+        <v>2024</v>
+      </c>
+      <c r="B525" t="s">
+        <v>13</v>
+      </c>
+      <c r="C525" s="1">
+        <v>45582</v>
+      </c>
+      <c r="D525" s="2">
+        <v>0</v>
+      </c>
+      <c r="E525" s="2">
+        <v>0</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526">
+        <v>2024</v>
+      </c>
+      <c r="B526" t="s">
+        <v>13</v>
+      </c>
+      <c r="C526" s="1">
+        <v>45583</v>
+      </c>
+      <c r="D526" s="2">
+        <v>0</v>
+      </c>
+      <c r="E526" s="2">
+        <v>0</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527">
+        <v>2024</v>
+      </c>
+      <c r="B527" t="s">
+        <v>13</v>
+      </c>
+      <c r="C527" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D527" s="2">
+        <v>0</v>
+      </c>
+      <c r="E527" s="2">
+        <v>0</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528">
+        <v>2024</v>
+      </c>
+      <c r="B528" t="s">
+        <v>13</v>
+      </c>
+      <c r="C528" s="1">
+        <v>45585</v>
+      </c>
+      <c r="D528" s="2">
+        <v>0</v>
+      </c>
+      <c r="E528" s="2">
+        <v>0</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529">
+        <v>2024</v>
+      </c>
+      <c r="B529" t="s">
+        <v>13</v>
+      </c>
+      <c r="C529" s="1">
+        <v>45586</v>
+      </c>
+      <c r="D529" s="2">
+        <v>0</v>
+      </c>
+      <c r="E529" s="2">
+        <v>0</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530">
+        <v>2024</v>
+      </c>
+      <c r="B530" t="s">
+        <v>13</v>
+      </c>
+      <c r="C530" s="1">
+        <v>45587</v>
+      </c>
+      <c r="D530" s="2">
+        <v>0</v>
+      </c>
+      <c r="E530" s="2">
+        <v>0</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531">
+        <v>2024</v>
+      </c>
+      <c r="B531" t="s">
+        <v>13</v>
+      </c>
+      <c r="C531" s="1">
+        <v>45588</v>
+      </c>
+      <c r="D531" s="2">
+        <v>0</v>
+      </c>
+      <c r="E531" s="2">
+        <v>0</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532">
+        <v>2024</v>
+      </c>
+      <c r="B532" t="s">
+        <v>13</v>
+      </c>
+      <c r="C532" s="1">
+        <v>45589</v>
+      </c>
+      <c r="D532" s="2">
+        <v>0</v>
+      </c>
+      <c r="E532" s="2">
+        <v>0</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533">
+        <v>2024</v>
+      </c>
+      <c r="B533" t="s">
+        <v>13</v>
+      </c>
+      <c r="C533" s="1">
+        <v>45590</v>
+      </c>
+      <c r="D533" s="2">
+        <v>0</v>
+      </c>
+      <c r="E533" s="2">
+        <v>0</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534">
+        <v>2024</v>
+      </c>
+      <c r="B534" t="s">
+        <v>13</v>
+      </c>
+      <c r="C534" s="1">
+        <v>45591</v>
+      </c>
+      <c r="D534" s="2">
+        <v>0</v>
+      </c>
+      <c r="E534" s="2">
+        <v>0</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535">
+        <v>2024</v>
+      </c>
+      <c r="B535" t="s">
+        <v>13</v>
+      </c>
+      <c r="C535" s="1">
+        <v>45592</v>
+      </c>
+      <c r="D535" s="2">
+        <v>0</v>
+      </c>
+      <c r="E535" s="2">
+        <v>0</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536">
+        <v>2024</v>
+      </c>
+      <c r="B536" t="s">
+        <v>13</v>
+      </c>
+      <c r="C536" s="1">
+        <v>45593</v>
+      </c>
+      <c r="D536" s="2">
+        <v>0</v>
+      </c>
+      <c r="E536" s="2">
+        <v>0</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537">
+        <v>2024</v>
+      </c>
+      <c r="B537" t="s">
+        <v>13</v>
+      </c>
+      <c r="C537" s="1">
+        <v>45594</v>
+      </c>
+      <c r="D537" s="2">
+        <v>0</v>
+      </c>
+      <c r="E537" s="2">
+        <v>0</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="A538">
+        <v>2024</v>
+      </c>
+      <c r="B538" t="s">
+        <v>13</v>
+      </c>
+      <c r="C538" s="1">
+        <v>45595</v>
+      </c>
+      <c r="D538" s="2">
+        <v>0</v>
+      </c>
+      <c r="E538" s="2">
+        <v>0</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539">
+        <v>2024</v>
+      </c>
+      <c r="B539" t="s">
+        <v>13</v>
+      </c>
+      <c r="C539" s="1">
+        <v>45596</v>
+      </c>
+      <c r="D539" s="2">
+        <v>0</v>
+      </c>
+      <c r="E539" s="2">
+        <v>0</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540">
+        <v>2024</v>
+      </c>
+      <c r="B540" t="s">
+        <v>14</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D540" s="2">
+        <v>0</v>
+      </c>
+      <c r="E540" s="2">
+        <v>0</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="A541">
+        <v>2024</v>
+      </c>
+      <c r="B541" t="s">
+        <v>14</v>
+      </c>
+      <c r="C541" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D541" s="2">
+        <v>0</v>
+      </c>
+      <c r="E541" s="2">
+        <v>0</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:A255"/>
-    <mergeCell ref="A256:A432"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:A224"/>
+    <mergeCell ref="A225:A541"/>
     <mergeCell ref="B3:B34"/>
     <mergeCell ref="B35:B65"/>
     <mergeCell ref="B66:B97"/>
@@ -9104,13 +11282,17 @@
     <mergeCell ref="B130:B160"/>
     <mergeCell ref="B161:B192"/>
     <mergeCell ref="B193:B223"/>
-    <mergeCell ref="B224:B255"/>
-    <mergeCell ref="B257:B288"/>
-    <mergeCell ref="B289:B318"/>
-    <mergeCell ref="B319:B350"/>
+    <mergeCell ref="B226:B257"/>
+    <mergeCell ref="B258:B287"/>
+    <mergeCell ref="B288:B319"/>
+    <mergeCell ref="B320:B350"/>
     <mergeCell ref="B351:B381"/>
     <mergeCell ref="B382:B412"/>
-    <mergeCell ref="B413:B432"/>
+    <mergeCell ref="B413:B444"/>
+    <mergeCell ref="B445:B476"/>
+    <mergeCell ref="B477:B507"/>
+    <mergeCell ref="B508:B539"/>
+    <mergeCell ref="B540:B541"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
